--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="184" formatCode="0.0000000000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -52,7 +52,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -92,10 +92,10 @@
           <c:order val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$F$1:$F$32</c:f>
+              <c:f>Лист1!$F$1:$F$290</c:f>
               <c:numCache>
                 <c:formatCode>0.0000000000000000000000</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -191,6 +191,780 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-1.1528380260237973E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.9119483449704437E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2645038142589085E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.3462082589708704E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-8.1467398029953152E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.0137855387106419E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.6232268991673199E-6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.1124004537412624E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-6.2896189745704275E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.3543079284948244E-5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-7.0447749056108588E-6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-7.3045579777727444E-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.7154473599352488E-5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.6227374517686652E-6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-4.9556762802896502E-5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.1103271076438981E-5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.3022996015948523E-6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-5.3366577651120659E-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.1694712462218194E-5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-5.1229928481218629E-6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.0308120905496325E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.7952082001124109E-5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.3394810349099054E-5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.7207103656618878E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5088594470808E-6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-3.3596129792396464E-5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.9911147365128274E-5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-7.220480428200067E-6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.7947199120130668E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.3431895313989465E-6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-3.352851207324227E-5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.3116567473216269E-5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.1061683134462389E-5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.0797957031973139E-5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-5.2821013419247574E-7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.0803994218423252E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.0542041359846557E-6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-3.109518932239086E-5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7893066776967473E-5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-1.5464141323872645E-5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.3230890522245353E-5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-7.8476440199725469E-6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.8926018076198467E-5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-2.9605386702280418E-6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.2142950489886049E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.4933142820892084E-7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-1.714736270767016E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.118763371360127E-6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-7.8507952016734854E-5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.8676838727389159E-6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-5.7177182361398224E-5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.8009403371525268E-6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-5.0503393551575389E-5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.9135333210219884E-6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-5.1389779135582792E-5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.2469729677498442E-6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-6.0783684590641551E-5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.8945764753027104E-6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-9.1527530381770397E-5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.9627466352627481E-6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-3.3198810851218472E-4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-4.8918887131717009E-7</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.3456616852463492E-4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-3.5198293750562816E-6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.7158097923228945E-5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-7.4255785036350682E-6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4595489130590192E-5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-1.3096224540394582E-5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.3714800480021377E-5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-2.3651220965377558E-5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6.6876393069023825E-6</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-6.0546740157659242E-5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.0056215837394066E-6</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.2436647007126435E-4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-4.8166845849933282E-6</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.5919304156486988E-5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-1.3053517567235025E-5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.0467913458917766E-5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-3.4565808494085704E-5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.3363096149888499E-6</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.7388263653630239E-4</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-4.9117509036664324E-6</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.1017008789112246E-5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-1.6238239737428524E-5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>6.551152994615762E-6</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-8.7456624822317459E-5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-1.827047116825583E-6</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.0064188214030961E-5</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-1.2254403640724382E-5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7.908931872282445E-6</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-6.3447413592823229E-5</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-1.5632140947757424E-6</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.7723473886965681E-5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-1.3348906065930146E-5</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6.1480787669178067E-6</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-1.5934833322160934E-4</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-3.7320226454200787E-6</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.7248516236396565E-5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-2.1036482751760309E-5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.2095808159863817E-6</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>5.7925388788563801E-5</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-8.9272968478949565E-6</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>7.9142384105174251E-6</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-8.2725704779406308E-5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-3.3707663533254188E-6</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.534505440253761E-5</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-2.4974432015950295E-5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3.5266403717749985E-7</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.8245137924501072E-5</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-1.4107531796604236E-5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.2799140491856986E-6</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6.1447311904521142E-5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-9.3425743753191502E-6</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>5.6851507355952032E-6</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3.5146131321745492E-4</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-6.7525260942623373E-6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7.5409995150253885E-6</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-1.6150500070698622E-4</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-5.3405373242371991E-6</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>8.6742594623204646E-6</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-9.1144303677428276E-5</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-4.7645579738323827E-6</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>8.9140870603859302E-6</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-8.8311889640249193E-5</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-4.9004821020704846E-6</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>8.2380908040723824E-6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-1.3981578535306925E-4</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-5.7347973240265627E-6</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6.809854858844913E-6</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>6.482999690994234E-4</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-7.3779569792781794E-6</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>4.8752002436009466E-6</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>6.6699162515874692E-5</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-1.0212883219054543E-5</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2.6213079362161935E-6</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2.9087358025106155E-5</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-1.5492318555824856E-5</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>8.7360675048614407E-8</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.5733308698371966E-5</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-2.9030528713593541E-5</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-2.9065615819325326E-6</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>8.6472228793370349E-6</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-2.0746259205652975E-4</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-6.9931336858618536E-6</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3.8176273599097603E-6</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3.4265170804412638E-5</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-1.4556662034858508E-5</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-3.2543743371720269E-7</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.2570468194326941E-5</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-4.7253815589242392E-5</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-5.0274275056261128E-6</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>4.8782219711077057E-6</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4.2655985935207957E-5</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-1.3372141395518017E-5</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-3.7180583223435381E-7</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.1328422482890556E-5</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-6.976224202044584E-5</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-6.2850431993193878E-6</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3.1581840466949461E-6</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.3217695413870306E-5</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-2.0673747414302202E-5</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-2.7657896521310733E-6</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>6.3850466313212026E-6</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>6.2632279467722882E-5</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-1.2117477654054211E-5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-5.6595817329515949E-7</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>9.4520124747557783E-6</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-4.2928726824085611E-4</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-8.6497438293828631E-6</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>8.2713304568661582E-7</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.2016274142041885E-5</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-7.2744685471152272E-5</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-7.0851994411633456E-6</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.5303133246191311E-6</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.3343716705771499E-5</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-5.4914461202259119E-5</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-6.6685174681697412E-6</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1.5656926247506017E-6</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.2867567130002813E-5</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-6.4986810233518357E-5</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-7.226461217821375E-6</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>9.6817658948187365E-7</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1.0829884343959469E-5</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-1.8917694214711577E-4</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-8.9232855830509673E-6</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-2.0835620572214555E-7</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>8.0300783057187523E-6</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>8.2300067398414047E-5</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-1.2578952727746147E-5</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-1.9653467141626997E-6</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>5.097714868739251E-6</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2.602578990803598E-5</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-2.2024654145388059E-5</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-4.5211170442896575E-6</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2.2232384917471649E-6</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1.2503991868951657E-5</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-1.0271529506327546E-4</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-8.8191114643900892E-6</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-7.7161320962439881E-7</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>6.0880925738241472E-6</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>3.0962546349450544E-5</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-2.013391836076934E-5</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-4.5320186049713106E-6</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1.747794609821395E-6</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1.0329180551867526E-5</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>3.1435096038846751E-4</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-1.1587860549023541E-5</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-2.3610806306085885E-6</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>3.5366447979930012E-6</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1.4806783329375962E-5</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-6.5737008915239204E-5</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-8.6309390277577464E-6</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-1.2636895327731039E-6</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>4.5464133259319541E-6</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1.793787308706634E-5</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-4.2512404124556202E-5</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-7.726366174308296E-6</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>-9.8480497709236813E-7</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>4.6273534358090906E-6</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1.7494439678304614E-5</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-4.7397447854673371E-5</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-8.2499221962596826E-6</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-1.450504822514822E-6</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>3.7991676704388243E-6</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1.3845855647660983E-5</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>-1.26261887256376E-4</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-1.0494771520682883E-5</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-2.6683205562360994E-6</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2.2739073949537213E-6</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>9.3960147413480818E-6</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>6.2499180539311744E-5</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-1.6640504960756531E-5</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-4.8567143112457966E-6</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2.3712912378505581E-7</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>5.4638109871209227E-6</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1.8607339318649299E-5</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-4.9923904192049788E-5</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>-9.0882398104369554E-6</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-2.4160265475875453E-6</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2.0790198412925688E-6</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>8.2377855605091636E-6</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>3.5792128712020885E-5</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-2.3071705644797819E-5</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-6.6225403692682612E-6</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-1.299604113300342E-6</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>3.0132191889678668E-6</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>9.7962032876016391E-6</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>5.4087240577281755E-5</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-1.9203124076145651E-5</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-6.0629654904820373E-6</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-1.1440176853596496E-6</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2.9585754439220817E-6</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>9.2706238167330136E-6</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>4.1777178499932849E-5</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>-2.257201801300126E-5</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-6.9675890984122798E-6</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>-1.8684793165845619E-6</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1.97863741027066E-6</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>7.0336467236289796E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -207,11 +981,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="174819968"/>
-        <c:axId val="174834048"/>
+        <c:axId val="139840512"/>
+        <c:axId val="145036032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="174819968"/>
+        <c:axId val="139840512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -220,7 +994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174834048"/>
+        <c:crossAx val="145036032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -228,7 +1002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174834048"/>
+        <c:axId val="145036032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -239,7 +1013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174819968"/>
+        <c:crossAx val="139840512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -271,8 +1045,8 @@
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -583,10 +1357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:I32"/>
+  <dimension ref="E1:I290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="e">
-        <f t="shared" ref="F2:F32" si="0">(-3.3*10^(-4)*TAN(E2*LOG10(E2*E2-5)))/(E2*E2-5)^(1/3)</f>
+        <f t="shared" ref="F2:F65" si="0">(-3.3*10^(-4)*TAN(E2*LOG10(E2*E2-5)))/(E2*E2-5)^(1/3)</f>
         <v>#NUM!</v>
       </c>
       <c r="I2">
@@ -884,6 +1658,2328 @@
       <c r="F32" s="1">
         <f t="shared" si="0"/>
         <v>-1.1528380260237973E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>6.9119483449704437E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>33</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2645038142589085E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>34</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.3462082589708704E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.1467398029953152E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>36</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>6.0137855387106419E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>37</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="0"/>
+        <v>7.6232268991673199E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>38</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.1124004537412624E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>39</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.2896189745704275E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>40</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3543079284948244E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>41</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.0447749056108588E-6</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>42</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.3045579777727444E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>43</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7154473599352488E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>44</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.6227374517686652E-6</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>45</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.9556762802896502E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>46</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1103271076438981E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>47</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.3022996015948523E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>48</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.3366577651120659E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>49</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1694712462218194E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>50</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.1229928481218629E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>51</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.0308120905496325E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>52</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7952082001124109E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>53</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.3394810349099054E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>54</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7207103656618878E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>55</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5088594470808E-6</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>56</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.3596129792396464E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>57</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9911147365128274E-5</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>58</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.220480428200067E-6</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>59</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7947199120130668E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>60</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="0"/>
+        <v>6.3431895313989465E-6</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>61</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.352851207324227E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>62</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3116567473216269E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>63</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.1061683134462389E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>64</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="0"/>
+        <v>8.0797957031973139E-5</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>65</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" ref="F66:F129" si="1">(-3.3*10^(-4)*TAN(E66*LOG10(E66*E66-5)))/(E66*E66-5)^(1/3)</f>
+        <v>-5.2821013419247574E-7</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>66</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.0803994218423252E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>67</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="1"/>
+        <v>8.0542041359846557E-6</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>68</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="1"/>
+        <v>-3.109518932239086E-5</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>69</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7893066776967473E-5</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>70</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.5464141323872645E-5</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>71</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3230890522245353E-5</v>
+      </c>
+    </row>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>72</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="1"/>
+        <v>-7.8476440199725469E-6</v>
+      </c>
+    </row>
+    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <v>73</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="1"/>
+        <v>6.8926018076198467E-5</v>
+      </c>
+    </row>
+    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <v>74</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.9605386702280418E-6</v>
+      </c>
+    </row>
+    <row r="76" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <v>75</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2142950489886049E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <v>76</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="1"/>
+        <v>5.4933142820892084E-7</v>
+      </c>
+    </row>
+    <row r="78" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>77</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.714736270767016E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>78</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="1"/>
+        <v>3.118763371360127E-6</v>
+      </c>
+    </row>
+    <row r="80" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>79</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" si="1"/>
+        <v>-7.8507952016734854E-5</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <v>80</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" si="1"/>
+        <v>4.8676838727389159E-6</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <v>81</v>
+      </c>
+      <c r="F82" s="1">
+        <f t="shared" si="1"/>
+        <v>-5.7177182361398224E-5</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>82</v>
+      </c>
+      <c r="F83" s="1">
+        <f t="shared" si="1"/>
+        <v>5.8009403371525268E-6</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>83</v>
+      </c>
+      <c r="F84" s="1">
+        <f t="shared" si="1"/>
+        <v>-5.0503393551575389E-5</v>
+      </c>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>84</v>
+      </c>
+      <c r="F85" s="1">
+        <f t="shared" si="1"/>
+        <v>5.9135333210219884E-6</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>85</v>
+      </c>
+      <c r="F86" s="1">
+        <f t="shared" si="1"/>
+        <v>-5.1389779135582792E-5</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>86</v>
+      </c>
+      <c r="F87" s="1">
+        <f t="shared" si="1"/>
+        <v>5.2469729677498442E-6</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <v>87</v>
+      </c>
+      <c r="F88" s="1">
+        <f t="shared" si="1"/>
+        <v>-6.0783684590641551E-5</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>88</v>
+      </c>
+      <c r="F89" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8945764753027104E-6</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>89</v>
+      </c>
+      <c r="F90" s="1">
+        <f t="shared" si="1"/>
+        <v>-9.1527530381770397E-5</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <v>90</v>
+      </c>
+      <c r="F91" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9627466352627481E-6</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <v>91</v>
+      </c>
+      <c r="F92" s="1">
+        <f t="shared" si="1"/>
+        <v>-3.3198810851218472E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <v>92</v>
+      </c>
+      <c r="F93" s="1">
+        <f t="shared" si="1"/>
+        <v>-4.8918887131717009E-7</v>
+      </c>
+    </row>
+    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <v>93</v>
+      </c>
+      <c r="F94" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3456616852463492E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <v>94</v>
+      </c>
+      <c r="F95" s="1">
+        <f t="shared" si="1"/>
+        <v>-3.5198293750562816E-6</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <v>95</v>
+      </c>
+      <c r="F96" s="1">
+        <f t="shared" si="1"/>
+        <v>4.7158097923228945E-5</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <v>96</v>
+      </c>
+      <c r="F97" s="1">
+        <f t="shared" si="1"/>
+        <v>-7.4255785036350682E-6</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>97</v>
+      </c>
+      <c r="F98" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4595489130590192E-5</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>98</v>
+      </c>
+      <c r="F99" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.3096224540394582E-5</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>99</v>
+      </c>
+      <c r="F100" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3714800480021377E-5</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <v>100</v>
+      </c>
+      <c r="F101" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.3651220965377558E-5</v>
+      </c>
+    </row>
+    <row r="102" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <v>101</v>
+      </c>
+      <c r="F102" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6876393069023825E-6</v>
+      </c>
+    </row>
+    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <v>102</v>
+      </c>
+      <c r="F103" s="1">
+        <f t="shared" si="1"/>
+        <v>-6.0546740157659242E-5</v>
+      </c>
+    </row>
+    <row r="104" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <v>103</v>
+      </c>
+      <c r="F104" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0056215837394066E-6</v>
+      </c>
+    </row>
+    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <v>104</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2436647007126435E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <v>105</v>
+      </c>
+      <c r="F106" s="1">
+        <f t="shared" si="1"/>
+        <v>-4.8166845849933282E-6</v>
+      </c>
+    </row>
+    <row r="107" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <v>106</v>
+      </c>
+      <c r="F107" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5919304156486988E-5</v>
+      </c>
+    </row>
+    <row r="108" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <v>107</v>
+      </c>
+      <c r="F108" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.3053517567235025E-5</v>
+      </c>
+    </row>
+    <row r="109" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>108</v>
+      </c>
+      <c r="F109" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0467913458917766E-5</v>
+      </c>
+    </row>
+    <row r="110" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <v>109</v>
+      </c>
+      <c r="F110" s="1">
+        <f t="shared" si="1"/>
+        <v>-3.4565808494085704E-5</v>
+      </c>
+    </row>
+    <row r="111" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>110</v>
+      </c>
+      <c r="F111" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3363096149888499E-6</v>
+      </c>
+    </row>
+    <row r="112" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <v>111</v>
+      </c>
+      <c r="F112" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7388263653630239E-4</v>
+      </c>
+    </row>
+    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <v>112</v>
+      </c>
+      <c r="F113" s="1">
+        <f t="shared" si="1"/>
+        <v>-4.9117509036664324E-6</v>
+      </c>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <v>113</v>
+      </c>
+      <c r="F114" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1017008789112246E-5</v>
+      </c>
+    </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <v>114</v>
+      </c>
+      <c r="F115" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.6238239737428524E-5</v>
+      </c>
+    </row>
+    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <v>115</v>
+      </c>
+      <c r="F116" s="1">
+        <f t="shared" si="1"/>
+        <v>6.551152994615762E-6</v>
+      </c>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <v>116</v>
+      </c>
+      <c r="F117" s="1">
+        <f t="shared" si="1"/>
+        <v>-8.7456624822317459E-5</v>
+      </c>
+    </row>
+    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <v>117</v>
+      </c>
+      <c r="F118" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.827047116825583E-6</v>
+      </c>
+    </row>
+    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <v>118</v>
+      </c>
+      <c r="F119" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0064188214030961E-5</v>
+      </c>
+    </row>
+    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <v>119</v>
+      </c>
+      <c r="F120" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.2254403640724382E-5</v>
+      </c>
+    </row>
+    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <v>120</v>
+      </c>
+      <c r="F121" s="1">
+        <f t="shared" si="1"/>
+        <v>7.908931872282445E-6</v>
+      </c>
+    </row>
+    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <v>121</v>
+      </c>
+      <c r="F122" s="1">
+        <f t="shared" si="1"/>
+        <v>-6.3447413592823229E-5</v>
+      </c>
+    </row>
+    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <v>122</v>
+      </c>
+      <c r="F123" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.5632140947757424E-6</v>
+      </c>
+    </row>
+    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <v>123</v>
+      </c>
+      <c r="F124" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7723473886965681E-5</v>
+      </c>
+    </row>
+    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <v>124</v>
+      </c>
+      <c r="F125" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.3348906065930146E-5</v>
+      </c>
+    </row>
+    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <v>125</v>
+      </c>
+      <c r="F126" s="1">
+        <f t="shared" si="1"/>
+        <v>6.1480787669178067E-6</v>
+      </c>
+    </row>
+    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <v>126</v>
+      </c>
+      <c r="F127" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.5934833322160934E-4</v>
+      </c>
+    </row>
+    <row r="128" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <v>127</v>
+      </c>
+      <c r="F128" s="1">
+        <f t="shared" si="1"/>
+        <v>-3.7320226454200787E-6</v>
+      </c>
+    </row>
+    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <v>128</v>
+      </c>
+      <c r="F129" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7248516236396565E-5</v>
+      </c>
+    </row>
+    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <v>129</v>
+      </c>
+      <c r="F130" s="1">
+        <f t="shared" ref="F130:F193" si="2">(-3.3*10^(-4)*TAN(E130*LOG10(E130*E130-5)))/(E130*E130-5)^(1/3)</f>
+        <v>-2.1036482751760309E-5</v>
+      </c>
+    </row>
+    <row r="131" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <v>130</v>
+      </c>
+      <c r="F131" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2095808159863817E-6</v>
+      </c>
+    </row>
+    <row r="132" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <v>131</v>
+      </c>
+      <c r="F132" s="1">
+        <f t="shared" si="2"/>
+        <v>5.7925388788563801E-5</v>
+      </c>
+    </row>
+    <row r="133" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E133">
+        <v>132</v>
+      </c>
+      <c r="F133" s="1">
+        <f t="shared" si="2"/>
+        <v>-8.9272968478949565E-6</v>
+      </c>
+    </row>
+    <row r="134" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E134">
+        <v>133</v>
+      </c>
+      <c r="F134" s="1">
+        <f t="shared" si="2"/>
+        <v>7.9142384105174251E-6</v>
+      </c>
+    </row>
+    <row r="135" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E135">
+        <v>134</v>
+      </c>
+      <c r="F135" s="1">
+        <f t="shared" si="2"/>
+        <v>-8.2725704779406308E-5</v>
+      </c>
+    </row>
+    <row r="136" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E136">
+        <v>135</v>
+      </c>
+      <c r="F136" s="1">
+        <f t="shared" si="2"/>
+        <v>-3.3707663533254188E-6</v>
+      </c>
+    </row>
+    <row r="137" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E137">
+        <v>136</v>
+      </c>
+      <c r="F137" s="1">
+        <f t="shared" si="2"/>
+        <v>1.534505440253761E-5</v>
+      </c>
+    </row>
+    <row r="138" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E138">
+        <v>137</v>
+      </c>
+      <c r="F138" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.4974432015950295E-5</v>
+      </c>
+    </row>
+    <row r="139" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <v>138</v>
+      </c>
+      <c r="F139" s="1">
+        <f t="shared" si="2"/>
+        <v>3.5266403717749985E-7</v>
+      </c>
+    </row>
+    <row r="140" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E140">
+        <v>139</v>
+      </c>
+      <c r="F140" s="1">
+        <f t="shared" si="2"/>
+        <v>2.8245137924501072E-5</v>
+      </c>
+    </row>
+    <row r="141" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E141">
+        <v>140</v>
+      </c>
+      <c r="F141" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.4107531796604236E-5</v>
+      </c>
+    </row>
+    <row r="142" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E142">
+        <v>141</v>
+      </c>
+      <c r="F142" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2799140491856986E-6</v>
+      </c>
+    </row>
+    <row r="143" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E143">
+        <v>142</v>
+      </c>
+      <c r="F143" s="1">
+        <f t="shared" si="2"/>
+        <v>6.1447311904521142E-5</v>
+      </c>
+    </row>
+    <row r="144" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E144">
+        <v>143</v>
+      </c>
+      <c r="F144" s="1">
+        <f t="shared" si="2"/>
+        <v>-9.3425743753191502E-6</v>
+      </c>
+    </row>
+    <row r="145" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E145">
+        <v>144</v>
+      </c>
+      <c r="F145" s="1">
+        <f t="shared" si="2"/>
+        <v>5.6851507355952032E-6</v>
+      </c>
+    </row>
+    <row r="146" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E146">
+        <v>145</v>
+      </c>
+      <c r="F146" s="1">
+        <f t="shared" si="2"/>
+        <v>3.5146131321745492E-4</v>
+      </c>
+    </row>
+    <row r="147" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E147">
+        <v>146</v>
+      </c>
+      <c r="F147" s="1">
+        <f t="shared" si="2"/>
+        <v>-6.7525260942623373E-6</v>
+      </c>
+    </row>
+    <row r="148" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E148">
+        <v>147</v>
+      </c>
+      <c r="F148" s="1">
+        <f t="shared" si="2"/>
+        <v>7.5409995150253885E-6</v>
+      </c>
+    </row>
+    <row r="149" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E149">
+        <v>148</v>
+      </c>
+      <c r="F149" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.6150500070698622E-4</v>
+      </c>
+    </row>
+    <row r="150" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E150">
+        <v>149</v>
+      </c>
+      <c r="F150" s="1">
+        <f t="shared" si="2"/>
+        <v>-5.3405373242371991E-6</v>
+      </c>
+    </row>
+    <row r="151" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E151">
+        <v>150</v>
+      </c>
+      <c r="F151" s="1">
+        <f t="shared" si="2"/>
+        <v>8.6742594623204646E-6</v>
+      </c>
+    </row>
+    <row r="152" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E152">
+        <v>151</v>
+      </c>
+      <c r="F152" s="1">
+        <f t="shared" si="2"/>
+        <v>-9.1144303677428276E-5</v>
+      </c>
+    </row>
+    <row r="153" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E153">
+        <v>152</v>
+      </c>
+      <c r="F153" s="1">
+        <f t="shared" si="2"/>
+        <v>-4.7645579738323827E-6</v>
+      </c>
+    </row>
+    <row r="154" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E154">
+        <v>153</v>
+      </c>
+      <c r="F154" s="1">
+        <f t="shared" si="2"/>
+        <v>8.9140870603859302E-6</v>
+      </c>
+    </row>
+    <row r="155" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E155">
+        <v>154</v>
+      </c>
+      <c r="F155" s="1">
+        <f t="shared" si="2"/>
+        <v>-8.8311889640249193E-5</v>
+      </c>
+    </row>
+    <row r="156" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E156">
+        <v>155</v>
+      </c>
+      <c r="F156" s="1">
+        <f t="shared" si="2"/>
+        <v>-4.9004821020704846E-6</v>
+      </c>
+    </row>
+    <row r="157" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E157">
+        <v>156</v>
+      </c>
+      <c r="F157" s="1">
+        <f t="shared" si="2"/>
+        <v>8.2380908040723824E-6</v>
+      </c>
+    </row>
+    <row r="158" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E158">
+        <v>157</v>
+      </c>
+      <c r="F158" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.3981578535306925E-4</v>
+      </c>
+    </row>
+    <row r="159" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E159">
+        <v>158</v>
+      </c>
+      <c r="F159" s="1">
+        <f t="shared" si="2"/>
+        <v>-5.7347973240265627E-6</v>
+      </c>
+    </row>
+    <row r="160" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E160">
+        <v>159</v>
+      </c>
+      <c r="F160" s="1">
+        <f t="shared" si="2"/>
+        <v>6.809854858844913E-6</v>
+      </c>
+    </row>
+    <row r="161" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E161">
+        <v>160</v>
+      </c>
+      <c r="F161" s="1">
+        <f t="shared" si="2"/>
+        <v>6.482999690994234E-4</v>
+      </c>
+    </row>
+    <row r="162" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E162">
+        <v>161</v>
+      </c>
+      <c r="F162" s="1">
+        <f t="shared" si="2"/>
+        <v>-7.3779569792781794E-6</v>
+      </c>
+    </row>
+    <row r="163" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E163">
+        <v>162</v>
+      </c>
+      <c r="F163" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8752002436009466E-6</v>
+      </c>
+    </row>
+    <row r="164" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E164">
+        <v>163</v>
+      </c>
+      <c r="F164" s="1">
+        <f t="shared" si="2"/>
+        <v>6.6699162515874692E-5</v>
+      </c>
+    </row>
+    <row r="165" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E165">
+        <v>164</v>
+      </c>
+      <c r="F165" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.0212883219054543E-5</v>
+      </c>
+    </row>
+    <row r="166" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E166">
+        <v>165</v>
+      </c>
+      <c r="F166" s="1">
+        <f t="shared" si="2"/>
+        <v>2.6213079362161935E-6</v>
+      </c>
+    </row>
+    <row r="167" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E167">
+        <v>166</v>
+      </c>
+      <c r="F167" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9087358025106155E-5</v>
+      </c>
+    </row>
+    <row r="168" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E168">
+        <v>167</v>
+      </c>
+      <c r="F168" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.5492318555824856E-5</v>
+      </c>
+    </row>
+    <row r="169" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E169">
+        <v>168</v>
+      </c>
+      <c r="F169" s="1">
+        <f t="shared" si="2"/>
+        <v>8.7360675048614407E-8</v>
+      </c>
+    </row>
+    <row r="170" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E170">
+        <v>169</v>
+      </c>
+      <c r="F170" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5733308698371966E-5</v>
+      </c>
+    </row>
+    <row r="171" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E171">
+        <v>170</v>
+      </c>
+      <c r="F171" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.9030528713593541E-5</v>
+      </c>
+    </row>
+    <row r="172" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E172">
+        <v>171</v>
+      </c>
+      <c r="F172" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.9065615819325326E-6</v>
+      </c>
+    </row>
+    <row r="173" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E173">
+        <v>172</v>
+      </c>
+      <c r="F173" s="1">
+        <f t="shared" si="2"/>
+        <v>8.6472228793370349E-6</v>
+      </c>
+    </row>
+    <row r="174" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E174">
+        <v>173</v>
+      </c>
+      <c r="F174" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.0746259205652975E-4</v>
+      </c>
+    </row>
+    <row r="175" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E175">
+        <v>174</v>
+      </c>
+      <c r="F175" s="1">
+        <f t="shared" si="2"/>
+        <v>-6.9931336858618536E-6</v>
+      </c>
+    </row>
+    <row r="176" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E176">
+        <v>175</v>
+      </c>
+      <c r="F176" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8176273599097603E-6</v>
+      </c>
+    </row>
+    <row r="177" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E177">
+        <v>176</v>
+      </c>
+      <c r="F177" s="1">
+        <f t="shared" si="2"/>
+        <v>3.4265170804412638E-5</v>
+      </c>
+    </row>
+    <row r="178" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E178">
+        <v>177</v>
+      </c>
+      <c r="F178" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.4556662034858508E-5</v>
+      </c>
+    </row>
+    <row r="179" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E179">
+        <v>178</v>
+      </c>
+      <c r="F179" s="1">
+        <f t="shared" si="2"/>
+        <v>-3.2543743371720269E-7</v>
+      </c>
+    </row>
+    <row r="180" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E180">
+        <v>179</v>
+      </c>
+      <c r="F180" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2570468194326941E-5</v>
+      </c>
+    </row>
+    <row r="181" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E181">
+        <v>180</v>
+      </c>
+      <c r="F181" s="1">
+        <f t="shared" si="2"/>
+        <v>-4.7253815589242392E-5</v>
+      </c>
+    </row>
+    <row r="182" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E182">
+        <v>181</v>
+      </c>
+      <c r="F182" s="1">
+        <f t="shared" si="2"/>
+        <v>-5.0274275056261128E-6</v>
+      </c>
+    </row>
+    <row r="183" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E183">
+        <v>182</v>
+      </c>
+      <c r="F183" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8782219711077057E-6</v>
+      </c>
+    </row>
+    <row r="184" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E184">
+        <v>183</v>
+      </c>
+      <c r="F184" s="1">
+        <f t="shared" si="2"/>
+        <v>4.2655985935207957E-5</v>
+      </c>
+    </row>
+    <row r="185" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E185">
+        <v>184</v>
+      </c>
+      <c r="F185" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.3372141395518017E-5</v>
+      </c>
+    </row>
+    <row r="186" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E186">
+        <v>185</v>
+      </c>
+      <c r="F186" s="1">
+        <f t="shared" si="2"/>
+        <v>-3.7180583223435381E-7</v>
+      </c>
+    </row>
+    <row r="187" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E187">
+        <v>186</v>
+      </c>
+      <c r="F187" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1328422482890556E-5</v>
+      </c>
+    </row>
+    <row r="188" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E188">
+        <v>187</v>
+      </c>
+      <c r="F188" s="1">
+        <f t="shared" si="2"/>
+        <v>-6.976224202044584E-5</v>
+      </c>
+    </row>
+    <row r="189" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E189">
+        <v>188</v>
+      </c>
+      <c r="F189" s="1">
+        <f t="shared" si="2"/>
+        <v>-6.2850431993193878E-6</v>
+      </c>
+    </row>
+    <row r="190" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E190">
+        <v>189</v>
+      </c>
+      <c r="F190" s="1">
+        <f t="shared" si="2"/>
+        <v>3.1581840466949461E-6</v>
+      </c>
+    </row>
+    <row r="191" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E191">
+        <v>190</v>
+      </c>
+      <c r="F191" s="1">
+        <f t="shared" si="2"/>
+        <v>2.3217695413870306E-5</v>
+      </c>
+    </row>
+    <row r="192" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E192">
+        <v>191</v>
+      </c>
+      <c r="F192" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.0673747414302202E-5</v>
+      </c>
+    </row>
+    <row r="193" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E193">
+        <v>192</v>
+      </c>
+      <c r="F193" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.7657896521310733E-6</v>
+      </c>
+    </row>
+    <row r="194" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E194">
+        <v>193</v>
+      </c>
+      <c r="F194" s="1">
+        <f t="shared" ref="F194:F257" si="3">(-3.3*10^(-4)*TAN(E194*LOG10(E194*E194-5)))/(E194*E194-5)^(1/3)</f>
+        <v>6.3850466313212026E-6</v>
+      </c>
+    </row>
+    <row r="195" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E195">
+        <v>194</v>
+      </c>
+      <c r="F195" s="1">
+        <f t="shared" si="3"/>
+        <v>6.2632279467722882E-5</v>
+      </c>
+    </row>
+    <row r="196" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E196">
+        <v>195</v>
+      </c>
+      <c r="F196" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.2117477654054211E-5</v>
+      </c>
+    </row>
+    <row r="197" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E197">
+        <v>196</v>
+      </c>
+      <c r="F197" s="1">
+        <f t="shared" si="3"/>
+        <v>-5.6595817329515949E-7</v>
+      </c>
+    </row>
+    <row r="198" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E198">
+        <v>197</v>
+      </c>
+      <c r="F198" s="1">
+        <f t="shared" si="3"/>
+        <v>9.4520124747557783E-6</v>
+      </c>
+    </row>
+    <row r="199" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E199">
+        <v>198</v>
+      </c>
+      <c r="F199" s="1">
+        <f t="shared" si="3"/>
+        <v>-4.2928726824085611E-4</v>
+      </c>
+    </row>
+    <row r="200" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E200">
+        <v>199</v>
+      </c>
+      <c r="F200" s="1">
+        <f t="shared" si="3"/>
+        <v>-8.6497438293828631E-6</v>
+      </c>
+    </row>
+    <row r="201" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E201">
+        <v>200</v>
+      </c>
+      <c r="F201" s="1">
+        <f t="shared" si="3"/>
+        <v>8.2713304568661582E-7</v>
+      </c>
+    </row>
+    <row r="202" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E202">
+        <v>201</v>
+      </c>
+      <c r="F202" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2016274142041885E-5</v>
+      </c>
+    </row>
+    <row r="203" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E203">
+        <v>202</v>
+      </c>
+      <c r="F203" s="1">
+        <f t="shared" si="3"/>
+        <v>-7.2744685471152272E-5</v>
+      </c>
+    </row>
+    <row r="204" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E204">
+        <v>203</v>
+      </c>
+      <c r="F204" s="1">
+        <f t="shared" si="3"/>
+        <v>-7.0851994411633456E-6</v>
+      </c>
+    </row>
+    <row r="205" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E205">
+        <v>204</v>
+      </c>
+      <c r="F205" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5303133246191311E-6</v>
+      </c>
+    </row>
+    <row r="206" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E206">
+        <v>205</v>
+      </c>
+      <c r="F206" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3343716705771499E-5</v>
+      </c>
+    </row>
+    <row r="207" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E207">
+        <v>206</v>
+      </c>
+      <c r="F207" s="1">
+        <f t="shared" si="3"/>
+        <v>-5.4914461202259119E-5</v>
+      </c>
+    </row>
+    <row r="208" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E208">
+        <v>207</v>
+      </c>
+      <c r="F208" s="1">
+        <f t="shared" si="3"/>
+        <v>-6.6685174681697412E-6</v>
+      </c>
+    </row>
+    <row r="209" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E209">
+        <v>208</v>
+      </c>
+      <c r="F209" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5656926247506017E-6</v>
+      </c>
+    </row>
+    <row r="210" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E210">
+        <v>209</v>
+      </c>
+      <c r="F210" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2867567130002813E-5</v>
+      </c>
+    </row>
+    <row r="211" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E211">
+        <v>210</v>
+      </c>
+      <c r="F211" s="1">
+        <f t="shared" si="3"/>
+        <v>-6.4986810233518357E-5</v>
+      </c>
+    </row>
+    <row r="212" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E212">
+        <v>211</v>
+      </c>
+      <c r="F212" s="1">
+        <f t="shared" si="3"/>
+        <v>-7.226461217821375E-6</v>
+      </c>
+    </row>
+    <row r="213" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E213">
+        <v>212</v>
+      </c>
+      <c r="F213" s="1">
+        <f t="shared" si="3"/>
+        <v>9.6817658948187365E-7</v>
+      </c>
+    </row>
+    <row r="214" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E214">
+        <v>213</v>
+      </c>
+      <c r="F214" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0829884343959469E-5</v>
+      </c>
+    </row>
+    <row r="215" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E215">
+        <v>214</v>
+      </c>
+      <c r="F215" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.8917694214711577E-4</v>
+      </c>
+    </row>
+    <row r="216" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E216">
+        <v>215</v>
+      </c>
+      <c r="F216" s="1">
+        <f t="shared" si="3"/>
+        <v>-8.9232855830509673E-6</v>
+      </c>
+    </row>
+    <row r="217" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E217">
+        <v>216</v>
+      </c>
+      <c r="F217" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.0835620572214555E-7</v>
+      </c>
+    </row>
+    <row r="218" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E218">
+        <v>217</v>
+      </c>
+      <c r="F218" s="1">
+        <f t="shared" si="3"/>
+        <v>8.0300783057187523E-6</v>
+      </c>
+    </row>
+    <row r="219" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E219">
+        <v>218</v>
+      </c>
+      <c r="F219" s="1">
+        <f t="shared" si="3"/>
+        <v>8.2300067398414047E-5</v>
+      </c>
+    </row>
+    <row r="220" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E220">
+        <v>219</v>
+      </c>
+      <c r="F220" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.2578952727746147E-5</v>
+      </c>
+    </row>
+    <row r="221" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E221">
+        <v>220</v>
+      </c>
+      <c r="F221" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.9653467141626997E-6</v>
+      </c>
+    </row>
+    <row r="222" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E222">
+        <v>221</v>
+      </c>
+      <c r="F222" s="1">
+        <f t="shared" si="3"/>
+        <v>5.097714868739251E-6</v>
+      </c>
+    </row>
+    <row r="223" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E223">
+        <v>222</v>
+      </c>
+      <c r="F223" s="1">
+        <f t="shared" si="3"/>
+        <v>2.602578990803598E-5</v>
+      </c>
+    </row>
+    <row r="224" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E224">
+        <v>223</v>
+      </c>
+      <c r="F224" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.2024654145388059E-5</v>
+      </c>
+    </row>
+    <row r="225" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E225">
+        <v>224</v>
+      </c>
+      <c r="F225" s="1">
+        <f t="shared" si="3"/>
+        <v>-4.5211170442896575E-6</v>
+      </c>
+    </row>
+    <row r="226" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E226">
+        <v>225</v>
+      </c>
+      <c r="F226" s="1">
+        <f t="shared" si="3"/>
+        <v>2.2232384917471649E-6</v>
+      </c>
+    </row>
+    <row r="227" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E227">
+        <v>226</v>
+      </c>
+      <c r="F227" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2503991868951657E-5</v>
+      </c>
+    </row>
+    <row r="228" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E228">
+        <v>227</v>
+      </c>
+      <c r="F228" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.0271529506327546E-4</v>
+      </c>
+    </row>
+    <row r="229" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E229">
+        <v>228</v>
+      </c>
+      <c r="F229" s="1">
+        <f t="shared" si="3"/>
+        <v>-8.8191114643900892E-6</v>
+      </c>
+    </row>
+    <row r="230" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E230">
+        <v>229</v>
+      </c>
+      <c r="F230" s="1">
+        <f t="shared" si="3"/>
+        <v>-7.7161320962439881E-7</v>
+      </c>
+    </row>
+    <row r="231" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E231">
+        <v>230</v>
+      </c>
+      <c r="F231" s="1">
+        <f t="shared" si="3"/>
+        <v>6.0880925738241472E-6</v>
+      </c>
+    </row>
+    <row r="232" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E232">
+        <v>231</v>
+      </c>
+      <c r="F232" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0962546349450544E-5</v>
+      </c>
+    </row>
+    <row r="233" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E233">
+        <v>232</v>
+      </c>
+      <c r="F233" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.013391836076934E-5</v>
+      </c>
+    </row>
+    <row r="234" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E234">
+        <v>233</v>
+      </c>
+      <c r="F234" s="1">
+        <f t="shared" si="3"/>
+        <v>-4.5320186049713106E-6</v>
+      </c>
+    </row>
+    <row r="235" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E235">
+        <v>234</v>
+      </c>
+      <c r="F235" s="1">
+        <f t="shared" si="3"/>
+        <v>1.747794609821395E-6</v>
+      </c>
+    </row>
+    <row r="236" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E236">
+        <v>235</v>
+      </c>
+      <c r="F236" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0329180551867526E-5</v>
+      </c>
+    </row>
+    <row r="237" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E237">
+        <v>236</v>
+      </c>
+      <c r="F237" s="1">
+        <f t="shared" si="3"/>
+        <v>3.1435096038846751E-4</v>
+      </c>
+    </row>
+    <row r="238" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E238">
+        <v>237</v>
+      </c>
+      <c r="F238" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.1587860549023541E-5</v>
+      </c>
+    </row>
+    <row r="239" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E239">
+        <v>238</v>
+      </c>
+      <c r="F239" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.3610806306085885E-6</v>
+      </c>
+    </row>
+    <row r="240" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E240">
+        <v>239</v>
+      </c>
+      <c r="F240" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5366447979930012E-6</v>
+      </c>
+    </row>
+    <row r="241" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E241">
+        <v>240</v>
+      </c>
+      <c r="F241" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4806783329375962E-5</v>
+      </c>
+    </row>
+    <row r="242" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E242">
+        <v>241</v>
+      </c>
+      <c r="F242" s="1">
+        <f t="shared" si="3"/>
+        <v>-6.5737008915239204E-5</v>
+      </c>
+    </row>
+    <row r="243" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E243">
+        <v>242</v>
+      </c>
+      <c r="F243" s="1">
+        <f t="shared" si="3"/>
+        <v>-8.6309390277577464E-6</v>
+      </c>
+    </row>
+    <row r="244" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E244">
+        <v>243</v>
+      </c>
+      <c r="F244" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.2636895327731039E-6</v>
+      </c>
+    </row>
+    <row r="245" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E245">
+        <v>244</v>
+      </c>
+      <c r="F245" s="1">
+        <f t="shared" si="3"/>
+        <v>4.5464133259319541E-6</v>
+      </c>
+    </row>
+    <row r="246" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E246">
+        <v>245</v>
+      </c>
+      <c r="F246" s="1">
+        <f t="shared" si="3"/>
+        <v>1.793787308706634E-5</v>
+      </c>
+    </row>
+    <row r="247" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E247">
+        <v>246</v>
+      </c>
+      <c r="F247" s="1">
+        <f t="shared" si="3"/>
+        <v>-4.2512404124556202E-5</v>
+      </c>
+    </row>
+    <row r="248" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E248">
+        <v>247</v>
+      </c>
+      <c r="F248" s="1">
+        <f t="shared" si="3"/>
+        <v>-7.726366174308296E-6</v>
+      </c>
+    </row>
+    <row r="249" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E249">
+        <v>248</v>
+      </c>
+      <c r="F249" s="1">
+        <f t="shared" si="3"/>
+        <v>-9.8480497709236813E-7</v>
+      </c>
+    </row>
+    <row r="250" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E250">
+        <v>249</v>
+      </c>
+      <c r="F250" s="1">
+        <f t="shared" si="3"/>
+        <v>4.6273534358090906E-6</v>
+      </c>
+    </row>
+    <row r="251" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E251">
+        <v>250</v>
+      </c>
+      <c r="F251" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7494439678304614E-5</v>
+      </c>
+    </row>
+    <row r="252" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E252">
+        <v>251</v>
+      </c>
+      <c r="F252" s="1">
+        <f t="shared" si="3"/>
+        <v>-4.7397447854673371E-5</v>
+      </c>
+    </row>
+    <row r="253" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E253">
+        <v>252</v>
+      </c>
+      <c r="F253" s="1">
+        <f t="shared" si="3"/>
+        <v>-8.2499221962596826E-6</v>
+      </c>
+    </row>
+    <row r="254" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E254">
+        <v>253</v>
+      </c>
+      <c r="F254" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.450504822514822E-6</v>
+      </c>
+    </row>
+    <row r="255" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E255">
+        <v>254</v>
+      </c>
+      <c r="F255" s="1">
+        <f t="shared" si="3"/>
+        <v>3.7991676704388243E-6</v>
+      </c>
+    </row>
+    <row r="256" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E256">
+        <v>255</v>
+      </c>
+      <c r="F256" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3845855647660983E-5</v>
+      </c>
+    </row>
+    <row r="257" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E257">
+        <v>256</v>
+      </c>
+      <c r="F257" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.26261887256376E-4</v>
+      </c>
+    </row>
+    <row r="258" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E258">
+        <v>257</v>
+      </c>
+      <c r="F258" s="1">
+        <f t="shared" ref="F258:F290" si="4">(-3.3*10^(-4)*TAN(E258*LOG10(E258*E258-5)))/(E258*E258-5)^(1/3)</f>
+        <v>-1.0494771520682883E-5</v>
+      </c>
+    </row>
+    <row r="259" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E259">
+        <v>258</v>
+      </c>
+      <c r="F259" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.6683205562360994E-6</v>
+      </c>
+    </row>
+    <row r="260" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E260">
+        <v>259</v>
+      </c>
+      <c r="F260" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2739073949537213E-6</v>
+      </c>
+    </row>
+    <row r="261" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E261">
+        <v>260</v>
+      </c>
+      <c r="F261" s="1">
+        <f t="shared" si="4"/>
+        <v>9.3960147413480818E-6</v>
+      </c>
+    </row>
+    <row r="262" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E262">
+        <v>261</v>
+      </c>
+      <c r="F262" s="1">
+        <f t="shared" si="4"/>
+        <v>6.2499180539311744E-5</v>
+      </c>
+    </row>
+    <row r="263" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E263">
+        <v>262</v>
+      </c>
+      <c r="F263" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.6640504960756531E-5</v>
+      </c>
+    </row>
+    <row r="264" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E264">
+        <v>263</v>
+      </c>
+      <c r="F264" s="1">
+        <f t="shared" si="4"/>
+        <v>-4.8567143112457966E-6</v>
+      </c>
+    </row>
+    <row r="265" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E265">
+        <v>264</v>
+      </c>
+      <c r="F265" s="1">
+        <f t="shared" si="4"/>
+        <v>2.3712912378505581E-7</v>
+      </c>
+    </row>
+    <row r="266" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E266">
+        <v>265</v>
+      </c>
+      <c r="F266" s="1">
+        <f t="shared" si="4"/>
+        <v>5.4638109871209227E-6</v>
+      </c>
+    </row>
+    <row r="267" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E267">
+        <v>266</v>
+      </c>
+      <c r="F267" s="1">
+        <f t="shared" si="4"/>
+        <v>1.8607339318649299E-5</v>
+      </c>
+    </row>
+    <row r="268" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E268">
+        <v>267</v>
+      </c>
+      <c r="F268" s="1">
+        <f t="shared" si="4"/>
+        <v>-4.9923904192049788E-5</v>
+      </c>
+    </row>
+    <row r="269" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E269">
+        <v>268</v>
+      </c>
+      <c r="F269" s="1">
+        <f t="shared" si="4"/>
+        <v>-9.0882398104369554E-6</v>
+      </c>
+    </row>
+    <row r="270" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E270">
+        <v>269</v>
+      </c>
+      <c r="F270" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.4160265475875453E-6</v>
+      </c>
+    </row>
+    <row r="271" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E271">
+        <v>270</v>
+      </c>
+      <c r="F271" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0790198412925688E-6</v>
+      </c>
+    </row>
+    <row r="272" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E272">
+        <v>271</v>
+      </c>
+      <c r="F272" s="1">
+        <f t="shared" si="4"/>
+        <v>8.2377855605091636E-6</v>
+      </c>
+    </row>
+    <row r="273" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E273">
+        <v>272</v>
+      </c>
+      <c r="F273" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5792128712020885E-5</v>
+      </c>
+    </row>
+    <row r="274" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E274">
+        <v>273</v>
+      </c>
+      <c r="F274" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.3071705644797819E-5</v>
+      </c>
+    </row>
+    <row r="275" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E275">
+        <v>274</v>
+      </c>
+      <c r="F275" s="1">
+        <f t="shared" si="4"/>
+        <v>-6.6225403692682612E-6</v>
+      </c>
+    </row>
+    <row r="276" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E276">
+        <v>275</v>
+      </c>
+      <c r="F276" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.299604113300342E-6</v>
+      </c>
+    </row>
+    <row r="277" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E277">
+        <v>276</v>
+      </c>
+      <c r="F277" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0132191889678668E-6</v>
+      </c>
+    </row>
+    <row r="278" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E278">
+        <v>277</v>
+      </c>
+      <c r="F278" s="1">
+        <f t="shared" si="4"/>
+        <v>9.7962032876016391E-6</v>
+      </c>
+    </row>
+    <row r="279" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E279">
+        <v>278</v>
+      </c>
+      <c r="F279" s="1">
+        <f t="shared" si="4"/>
+        <v>5.4087240577281755E-5</v>
+      </c>
+    </row>
+    <row r="280" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E280">
+        <v>279</v>
+      </c>
+      <c r="F280" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.9203124076145651E-5</v>
+      </c>
+    </row>
+    <row r="281" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E281">
+        <v>280</v>
+      </c>
+      <c r="F281" s="1">
+        <f t="shared" si="4"/>
+        <v>-6.0629654904820373E-6</v>
+      </c>
+    </row>
+    <row r="282" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E282">
+        <v>281</v>
+      </c>
+      <c r="F282" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.1440176853596496E-6</v>
+      </c>
+    </row>
+    <row r="283" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E283">
+        <v>282</v>
+      </c>
+      <c r="F283" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9585754439220817E-6</v>
+      </c>
+    </row>
+    <row r="284" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E284">
+        <v>283</v>
+      </c>
+      <c r="F284" s="1">
+        <f t="shared" si="4"/>
+        <v>9.2706238167330136E-6</v>
+      </c>
+    </row>
+    <row r="285" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E285">
+        <v>284</v>
+      </c>
+      <c r="F285" s="1">
+        <f t="shared" si="4"/>
+        <v>4.1777178499932849E-5</v>
+      </c>
+    </row>
+    <row r="286" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E286">
+        <v>285</v>
+      </c>
+      <c r="F286" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.257201801300126E-5</v>
+      </c>
+    </row>
+    <row r="287" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E287">
+        <v>286</v>
+      </c>
+      <c r="F287" s="1">
+        <f t="shared" si="4"/>
+        <v>-6.9675890984122798E-6</v>
+      </c>
+    </row>
+    <row r="288" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E288">
+        <v>287</v>
+      </c>
+      <c r="F288" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.8684793165845619E-6</v>
+      </c>
+    </row>
+    <row r="289" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E289">
+        <v>288</v>
+      </c>
+      <c r="F289" s="1">
+        <f t="shared" si="4"/>
+        <v>1.97863741027066E-6</v>
+      </c>
+    </row>
+    <row r="290" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E290">
+        <v>289</v>
+      </c>
+      <c r="F290" s="1">
+        <f t="shared" si="4"/>
+        <v>7.0336467236289796E-6</v>
       </c>
     </row>
   </sheetData>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="13395" windowHeight="7740"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="13395" windowHeight="7740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1067,6 +1067,52 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2050" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2050"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -1357,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:I290"/>
+  <dimension ref="E1:F290"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,7 +1414,7 @@
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>0</v>
       </c>
@@ -1377,7 +1423,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="2" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E2">
         <v>1</v>
       </c>
@@ -1385,12 +1431,8 @@
         <f t="shared" ref="F2:F65" si="0">(-3.3*10^(-4)*TAN(E2*LOG10(E2*E2-5)))/(E2*E2-5)^(1/3)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I2">
-        <f>0.5*2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="5:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E3">
         <v>2</v>
       </c>
@@ -1399,7 +1441,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="4" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E4">
         <v>3</v>
       </c>
@@ -1408,7 +1450,7 @@
         <v>8.6681195192133168E-4</v>
       </c>
     </row>
-    <row r="5" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>4</v>
       </c>
@@ -1417,7 +1459,7 @@
         <v>-2.4375531735343673E-4</v>
       </c>
     </row>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E6">
         <v>5</v>
       </c>
@@ -1426,7 +1468,7 @@
         <v>-2.7436998253165347E-5</v>
       </c>
     </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>6</v>
       </c>
@@ -1435,7 +1477,7 @@
         <v>5.423769642092256E-5</v>
       </c>
     </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>7</v>
       </c>
@@ -1444,7 +1486,7 @@
         <v>1.6766404874816622E-4</v>
       </c>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>8</v>
       </c>
@@ -1453,7 +1495,7 @@
         <v>2.8581852577548679E-3</v>
       </c>
     </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>9</v>
       </c>
@@ -1462,7 +1504,7 @@
         <v>-2.1247838810136416E-4</v>
       </c>
     </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>10</v>
       </c>
@@ -1471,7 +1513,7 @@
         <v>-9.6507213415741706E-5</v>
       </c>
     </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E12">
         <v>11</v>
       </c>
@@ -1480,7 +1522,7 @@
         <v>-5.909419954965529E-5</v>
       </c>
     </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>12</v>
       </c>
@@ -1489,7 +1531,7 @@
         <v>-4.2051303970868043E-5</v>
       </c>
     </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>13</v>
       </c>
@@ -1498,7 +1540,7 @@
         <v>-3.4409654223666406E-5</v>
       </c>
     </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>14</v>
       </c>
@@ -1507,7 +1549,7 @@
         <v>-3.2697967169265569E-5</v>
       </c>
     </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E16">
         <v>15</v>
       </c>
@@ -3990,15 +4032,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Word.Document.12" shapeId="2050" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Word.Document.12" shapeId="2050" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -15,12 +15,37 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Введите А</t>
+  </si>
+  <si>
+    <t>Введите B</t>
+  </si>
+  <si>
+    <t>Введите N</t>
+  </si>
+  <si>
+    <t>∆=(B-A)/(N-1)</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>F(x)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000000000000000000000"/>
+    <numFmt numFmtId="186" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,6 +53,29 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,15 +95,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1076,16 +1130,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>161925</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1406,7 +1460,7 @@
   <dimension ref="E1:F290"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4033,14 +4087,3944 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>B1</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f>IF($B$3&gt;C2,IFERROR((-3.3*10^(-4)*TAN(D2*LOG10(D2*D2-5)))/(D2*D2-5)^(1/3),"Не сущ"),"")</f>
+        <v>Не сущ</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>101</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f>IF($B$3&gt;C3,D2+$B$5,"")</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f>IF($B$3&gt;C3,IFERROR((-3.3*10^(-4)*TAN(D3*LOG10(D3*D3-5)))/(D3*D3-5)^(1/3),"Не сущ"),"")</f>
+        <v>Не сущ</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f>IF($B$3&gt;C4,D3+$B$5,"")</f>
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f t="shared" ref="E4:E67" si="0">IF($B$3&gt;C4,IFERROR((-3.3*10^(-4)*TAN(D4*LOG10(D4*D4-5)))/(D4*D4-5)^(1/3),"Не сущ"),"")</f>
+        <v>Не сущ</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f>(B2-B1)/(B3-1)</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f>IF($B$3&gt;C5,D4+$B$5,"")</f>
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>8.6681195192133168E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <f>IF($B$3&gt;C6,D5+$B$5,"")</f>
+        <v>4</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.4375531735343673E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D70" si="1">IF($B$3&gt;C7,D6+$B$5,"")</f>
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.7436998253165347E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>5.423769642092256E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6766404874816622E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8581852577548679E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.1247838810136416E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.6507213415741706E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="3">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>-5.909419954965529E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="3">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.2051303970868043E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="3">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.4409654223666406E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="3">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.2697967169265569E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="3">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.5722496625778846E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="3">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.3677930868702347E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="3">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>-5.8992751579206769E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="3">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.1678374702539814E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="3">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.1105563364268406E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="3">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="0"/>
+        <v>4.6871554153900686E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="3">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="0"/>
+        <v>8.9783977219583591E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="3">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7206889421028237E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="3">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="0"/>
+        <v>1.209161082855653E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="3">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="0"/>
+        <v>-7.4777173078202572E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="3">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.2251448454172418E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="3">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.0910660168353274E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="3">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4766694854718916E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="3">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="0"/>
+        <v>3.1351940241606407E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="3">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7738646067653548E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="3">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.2932452238752384E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="3">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.1528380260237973E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="3">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="0"/>
+        <v>6.9119483449704437E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="3">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2645038142589085E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="3">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.3462082589708704E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="3">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="0"/>
+        <v>-8.1467398029953152E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="3">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="0"/>
+        <v>6.0137855387106419E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="3">
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" si="0"/>
+        <v>7.6232268991673199E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="3">
+        <v>39</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.1124004537412624E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="3">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" si="0"/>
+        <v>-6.2896189745704275E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="3">
+        <v>41</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3543079284948244E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="3">
+        <v>42</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="E43" s="4">
+        <f t="shared" si="0"/>
+        <v>-7.0447749056108588E-6</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="3">
+        <v>43</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" si="0"/>
+        <v>-7.3045579777727444E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="3">
+        <v>44</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="E45" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7154473599352488E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="3">
+        <v>45</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="E46" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.6227374517686652E-6</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C47" s="3">
+        <v>46</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="E47" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.9556762802896502E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C48" s="3">
+        <v>47</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="E48" s="4">
+        <f t="shared" si="0"/>
+        <v>4.1103271076438981E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="3">
+        <v>48</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.3022996015948523E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50" s="3">
+        <v>49</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="0"/>
+        <v>-5.3366577651120659E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51" s="3">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="E51" s="4">
+        <f t="shared" si="0"/>
+        <v>3.1694712462218194E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52" s="3">
+        <v>51</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E52" s="4">
+        <f t="shared" si="0"/>
+        <v>-5.1229928481218629E-6</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53" s="3">
+        <v>52</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="E53" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.0308120905496325E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="3">
+        <v>53</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="E54" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7952082001124109E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C55" s="3">
+        <v>54</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="E55" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.3394810349099054E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C56" s="3">
+        <v>55</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="E56" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7207103656618878E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C57" s="3">
+        <v>56</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E57" s="4">
+        <f t="shared" si="0"/>
+        <v>5.5088594470808E-6</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="3">
+        <v>57</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E58" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.3596129792396464E-5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="3">
+        <v>58</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="E59" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9911147365128274E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C60" s="3">
+        <v>59</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="E60" s="4">
+        <f t="shared" si="0"/>
+        <v>-7.220480428200067E-6</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C61" s="3">
+        <v>60</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="E61" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7947199120130668E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C62" s="3">
+        <v>61</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E62" s="4">
+        <f t="shared" si="0"/>
+        <v>6.3431895313989465E-6</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C63" s="3">
+        <v>62</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="E63" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.352851207324227E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C64" s="3">
+        <v>63</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="E64" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3116567473216269E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C65" s="3">
+        <v>64</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="E65" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.1061683134462389E-5</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C66" s="3">
+        <v>65</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="E66" s="4">
+        <f t="shared" si="0"/>
+        <v>8.0797957031973139E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C67" s="3">
+        <v>66</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="E67" s="4">
+        <f t="shared" si="0"/>
+        <v>-5.2821013419247574E-7</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C68" s="3">
+        <v>67</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="E68" s="4">
+        <f t="shared" ref="E68:E131" si="2">IF($B$3&gt;C68,IFERROR((-3.3*10^(-4)*TAN(D68*LOG10(D68*D68-5)))/(D68*D68-5)^(1/3),"Не сущ"),"")</f>
+        <v>-1.0803994218423252E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C69" s="3">
+        <v>68</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="E69" s="4">
+        <f t="shared" si="2"/>
+        <v>8.0542041359846557E-6</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C70" s="3">
+        <v>69</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="E70" s="4">
+        <f t="shared" si="2"/>
+        <v>-3.109518932239086E-5</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C71" s="3">
+        <v>70</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ref="D71:D134" si="3">IF($B$3&gt;C71,D70+$B$5,"")</f>
+        <v>69</v>
+      </c>
+      <c r="E71" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7893066776967473E-5</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C72" s="3">
+        <v>71</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="E72" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.5464141323872645E-5</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C73" s="3">
+        <v>72</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="E73" s="4">
+        <f t="shared" si="2"/>
+        <v>3.3230890522245353E-5</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C74" s="3">
+        <v>73</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="E74" s="4">
+        <f t="shared" si="2"/>
+        <v>-7.8476440199725469E-6</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C75" s="3">
+        <v>74</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="E75" s="4">
+        <f t="shared" si="2"/>
+        <v>6.8926018076198467E-5</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C76" s="3">
+        <v>75</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="E76" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.9605386702280418E-6</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C77" s="3">
+        <v>76</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="E77" s="4">
+        <f t="shared" si="2"/>
+        <v>3.2142950489886049E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C78" s="3">
+        <v>77</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="E78" s="4">
+        <f t="shared" si="2"/>
+        <v>5.4933142820892084E-7</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C79" s="3">
+        <v>78</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="E79" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.714736270767016E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C80" s="3">
+        <v>79</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="E80" s="4">
+        <f t="shared" si="2"/>
+        <v>3.118763371360127E-6</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C81" s="3">
+        <v>80</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="E81" s="4">
+        <f t="shared" si="2"/>
+        <v>-7.8507952016734854E-5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C82" s="3">
+        <v>81</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="E82" s="4">
+        <f t="shared" si="2"/>
+        <v>4.8676838727389159E-6</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C83" s="3">
+        <v>82</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="E83" s="4">
+        <f t="shared" si="2"/>
+        <v>-5.7177182361398224E-5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C84" s="3">
+        <v>83</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="E84" s="4">
+        <f t="shared" si="2"/>
+        <v>5.8009403371525268E-6</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C85" s="3">
+        <v>84</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="E85" s="4">
+        <f t="shared" si="2"/>
+        <v>-5.0503393551575389E-5</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C86" s="3">
+        <v>85</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="E86" s="4">
+        <f t="shared" si="2"/>
+        <v>5.9135333210219884E-6</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C87" s="3">
+        <v>86</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="E87" s="4">
+        <f t="shared" si="2"/>
+        <v>-5.1389779135582792E-5</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C88" s="3">
+        <v>87</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="E88" s="4">
+        <f t="shared" si="2"/>
+        <v>5.2469729677498442E-6</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C89" s="3">
+        <v>88</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="E89" s="4">
+        <f t="shared" si="2"/>
+        <v>-6.0783684590641551E-5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C90" s="3">
+        <v>89</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="E90" s="4">
+        <f t="shared" si="2"/>
+        <v>3.8945764753027104E-6</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C91" s="3">
+        <v>90</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="E91" s="4">
+        <f t="shared" si="2"/>
+        <v>-9.1527530381770397E-5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C92" s="3">
+        <v>91</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E92" s="4">
+        <f t="shared" si="2"/>
+        <v>1.9627466352627481E-6</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C93" s="3">
+        <v>92</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="E93" s="4">
+        <f t="shared" si="2"/>
+        <v>-3.3198810851218472E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C94" s="3">
+        <v>93</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="E94" s="4">
+        <f t="shared" si="2"/>
+        <v>-4.8918887131717009E-7</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C95" s="3">
+        <v>94</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="E95" s="4">
+        <f t="shared" si="2"/>
+        <v>1.3456616852463492E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C96" s="3">
+        <v>95</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="E96" s="4">
+        <f t="shared" si="2"/>
+        <v>-3.5198293750562816E-6</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C97" s="3">
+        <v>96</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="E97" s="4">
+        <f t="shared" si="2"/>
+        <v>4.7158097923228945E-5</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C98" s="3">
+        <v>97</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="E98" s="4">
+        <f t="shared" si="2"/>
+        <v>-7.4255785036350682E-6</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C99" s="3">
+        <v>98</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="E99" s="4">
+        <f t="shared" si="2"/>
+        <v>2.4595489130590192E-5</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C100" s="3">
+        <v>99</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="E100" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.3096224540394582E-5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C101" s="3">
+        <v>100</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="E101" s="4">
+        <f t="shared" si="2"/>
+        <v>1.3714800480021377E-5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C102" s="3">
+        <v>101</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E102" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C103" s="3">
+        <v>102</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E103" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C104" s="3">
+        <v>103</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E104" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C105" s="3">
+        <v>104</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E105" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C106" s="3">
+        <v>105</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E106" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C107" s="3">
+        <v>106</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E107" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C108" s="3">
+        <v>107</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E108" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C109" s="3">
+        <v>108</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E109" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C110" s="3">
+        <v>109</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E110" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C111" s="3">
+        <v>110</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E111" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C112" s="3">
+        <v>111</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E112" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C113" s="3">
+        <v>112</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E113" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C114" s="3">
+        <v>113</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E114" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C115" s="3">
+        <v>114</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E115" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C116" s="3">
+        <v>115</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E116" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C117" s="3">
+        <v>116</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E117" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C118" s="3">
+        <v>117</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E118" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C119" s="3">
+        <v>118</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E119" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C120" s="3">
+        <v>119</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E120" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C121" s="3">
+        <v>120</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E121" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C122" s="3">
+        <v>121</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E122" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C123" s="3">
+        <v>122</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E123" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C124" s="3">
+        <v>123</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E124" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C125" s="3">
+        <v>124</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E125" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C126" s="3">
+        <v>125</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E126" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C127" s="3">
+        <v>126</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E127" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C128" s="3">
+        <v>127</v>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E128" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C129" s="3">
+        <v>128</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E129" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C130" s="3">
+        <v>129</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E130" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C131" s="3">
+        <v>130</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E131" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C132" s="3">
+        <v>131</v>
+      </c>
+      <c r="D132" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E132" s="4" t="str">
+        <f t="shared" ref="E132:E195" si="4">IF($B$3&gt;C132,IFERROR((-3.3*10^(-4)*TAN(D132*LOG10(D132*D132-5)))/(D132*D132-5)^(1/3),"Не сущ"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C133" s="3">
+        <v>132</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E133" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C134" s="3">
+        <v>133</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E134" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C135" s="3">
+        <v>134</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" ref="D135:D198" si="5">IF($B$3&gt;C135,D134+$B$5,"")</f>
+        <v/>
+      </c>
+      <c r="E135" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C136" s="3">
+        <v>135</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E136" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C137" s="3">
+        <v>136</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E137" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C138" s="3">
+        <v>137</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E138" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C139" s="3">
+        <v>138</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E139" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C140" s="3">
+        <v>139</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E140" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C141" s="3">
+        <v>140</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E141" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C142" s="3">
+        <v>141</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E142" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C143" s="3">
+        <v>142</v>
+      </c>
+      <c r="D143" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E143" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C144" s="3">
+        <v>143</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E144" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C145" s="3">
+        <v>144</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E145" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C146" s="3">
+        <v>145</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E146" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C147" s="3">
+        <v>146</v>
+      </c>
+      <c r="D147" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E147" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C148" s="3">
+        <v>147</v>
+      </c>
+      <c r="D148" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E148" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C149" s="3">
+        <v>148</v>
+      </c>
+      <c r="D149" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E149" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C150" s="3">
+        <v>149</v>
+      </c>
+      <c r="D150" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E150" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C151" s="3">
+        <v>150</v>
+      </c>
+      <c r="D151" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E151" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C152" s="3">
+        <v>151</v>
+      </c>
+      <c r="D152" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E152" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C153" s="3">
+        <v>152</v>
+      </c>
+      <c r="D153" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E153" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C154" s="3">
+        <v>153</v>
+      </c>
+      <c r="D154" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E154" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C155" s="3">
+        <v>154</v>
+      </c>
+      <c r="D155" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E155" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C156" s="3">
+        <v>155</v>
+      </c>
+      <c r="D156" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E156" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C157" s="3">
+        <v>156</v>
+      </c>
+      <c r="D157" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E157" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C158" s="3">
+        <v>157</v>
+      </c>
+      <c r="D158" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E158" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C159" s="3">
+        <v>158</v>
+      </c>
+      <c r="D159" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E159" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C160" s="3">
+        <v>159</v>
+      </c>
+      <c r="D160" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E160" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C161" s="3">
+        <v>160</v>
+      </c>
+      <c r="D161" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E161" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C162" s="3">
+        <v>161</v>
+      </c>
+      <c r="D162" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E162" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C163" s="3">
+        <v>162</v>
+      </c>
+      <c r="D163" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E163" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C164" s="3">
+        <v>163</v>
+      </c>
+      <c r="D164" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E164" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C165" s="3">
+        <v>164</v>
+      </c>
+      <c r="D165" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E165" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C166" s="3">
+        <v>165</v>
+      </c>
+      <c r="D166" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E166" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C167" s="3">
+        <v>166</v>
+      </c>
+      <c r="D167" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E167" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C168" s="3">
+        <v>167</v>
+      </c>
+      <c r="D168" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E168" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C169" s="3">
+        <v>168</v>
+      </c>
+      <c r="D169" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E169" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C170" s="3">
+        <v>169</v>
+      </c>
+      <c r="D170" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E170" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C171" s="3">
+        <v>170</v>
+      </c>
+      <c r="D171" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E171" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C172" s="3">
+        <v>171</v>
+      </c>
+      <c r="D172" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E172" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C173" s="3">
+        <v>172</v>
+      </c>
+      <c r="D173" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E173" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C174" s="3">
+        <v>173</v>
+      </c>
+      <c r="D174" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E174" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C175" s="3">
+        <v>174</v>
+      </c>
+      <c r="D175" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E175" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C176" s="3">
+        <v>175</v>
+      </c>
+      <c r="D176" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E176" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C177" s="3">
+        <v>176</v>
+      </c>
+      <c r="D177" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E177" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C178" s="3">
+        <v>177</v>
+      </c>
+      <c r="D178" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E178" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C179" s="3">
+        <v>178</v>
+      </c>
+      <c r="D179" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E179" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C180" s="3">
+        <v>179</v>
+      </c>
+      <c r="D180" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E180" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C181" s="3">
+        <v>180</v>
+      </c>
+      <c r="D181" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E181" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C182" s="3">
+        <v>181</v>
+      </c>
+      <c r="D182" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E182" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C183" s="3">
+        <v>182</v>
+      </c>
+      <c r="D183" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E183" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C184" s="3">
+        <v>183</v>
+      </c>
+      <c r="D184" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E184" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C185" s="3">
+        <v>184</v>
+      </c>
+      <c r="D185" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E185" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C186" s="3">
+        <v>185</v>
+      </c>
+      <c r="D186" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E186" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C187" s="3">
+        <v>186</v>
+      </c>
+      <c r="D187" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E187" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C188" s="3">
+        <v>187</v>
+      </c>
+      <c r="D188" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E188" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C189" s="3">
+        <v>188</v>
+      </c>
+      <c r="D189" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E189" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C190" s="3">
+        <v>189</v>
+      </c>
+      <c r="D190" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E190" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C191" s="3">
+        <v>190</v>
+      </c>
+      <c r="D191" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E191" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C192" s="3">
+        <v>191</v>
+      </c>
+      <c r="D192" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E192" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C193" s="3">
+        <v>192</v>
+      </c>
+      <c r="D193" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E193" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C194" s="3">
+        <v>193</v>
+      </c>
+      <c r="D194" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E194" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C195" s="3">
+        <v>194</v>
+      </c>
+      <c r="D195" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E195" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C196" s="3">
+        <v>195</v>
+      </c>
+      <c r="D196" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E196" s="4" t="str">
+        <f t="shared" ref="E196:E259" si="6">IF($B$3&gt;C196,IFERROR((-3.3*10^(-4)*TAN(D196*LOG10(D196*D196-5)))/(D196*D196-5)^(1/3),"Не сущ"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C197" s="3">
+        <v>196</v>
+      </c>
+      <c r="D197" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E197" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C198" s="3">
+        <v>197</v>
+      </c>
+      <c r="D198" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E198" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C199" s="3">
+        <v>198</v>
+      </c>
+      <c r="D199" t="str">
+        <f t="shared" ref="D199:D262" si="7">IF($B$3&gt;C199,D198+$B$5,"")</f>
+        <v/>
+      </c>
+      <c r="E199" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C200" s="3">
+        <v>199</v>
+      </c>
+      <c r="D200" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E200" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C201" s="3">
+        <v>200</v>
+      </c>
+      <c r="D201" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E201" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C202" s="3">
+        <v>201</v>
+      </c>
+      <c r="D202" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E202" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C203" s="3">
+        <v>202</v>
+      </c>
+      <c r="D203" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E203" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C204" s="3">
+        <v>203</v>
+      </c>
+      <c r="D204" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E204" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C205" s="3">
+        <v>204</v>
+      </c>
+      <c r="D205" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E205" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C206" s="3">
+        <v>205</v>
+      </c>
+      <c r="D206" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E206" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C207" s="3">
+        <v>206</v>
+      </c>
+      <c r="D207" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E207" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C208" s="3">
+        <v>207</v>
+      </c>
+      <c r="D208" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E208" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C209" s="3">
+        <v>208</v>
+      </c>
+      <c r="D209" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E209" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C210" s="3">
+        <v>209</v>
+      </c>
+      <c r="D210" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E210" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C211" s="3">
+        <v>210</v>
+      </c>
+      <c r="D211" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E211" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C212" s="3">
+        <v>211</v>
+      </c>
+      <c r="D212" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E212" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C213" s="3">
+        <v>212</v>
+      </c>
+      <c r="D213" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E213" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C214" s="3">
+        <v>213</v>
+      </c>
+      <c r="D214" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E214" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C215" s="3">
+        <v>214</v>
+      </c>
+      <c r="D215" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E215" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C216" s="3">
+        <v>215</v>
+      </c>
+      <c r="D216" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E216" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C217" s="3">
+        <v>216</v>
+      </c>
+      <c r="D217" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E217" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C218" s="3">
+        <v>217</v>
+      </c>
+      <c r="D218" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E218" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C219" s="3">
+        <v>218</v>
+      </c>
+      <c r="D219" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E219" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C220" s="3">
+        <v>219</v>
+      </c>
+      <c r="D220" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E220" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C221" s="3">
+        <v>220</v>
+      </c>
+      <c r="D221" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E221" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C222" s="3">
+        <v>221</v>
+      </c>
+      <c r="D222" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E222" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C223" s="3">
+        <v>222</v>
+      </c>
+      <c r="D223" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E223" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C224" s="3">
+        <v>223</v>
+      </c>
+      <c r="D224" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E224" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C225" s="3">
+        <v>224</v>
+      </c>
+      <c r="D225" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E225" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C226" s="3">
+        <v>225</v>
+      </c>
+      <c r="D226" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E226" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C227" s="3">
+        <v>226</v>
+      </c>
+      <c r="D227" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E227" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C228" s="3">
+        <v>227</v>
+      </c>
+      <c r="D228" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E228" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C229" s="3">
+        <v>228</v>
+      </c>
+      <c r="D229" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E229" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C230" s="3">
+        <v>229</v>
+      </c>
+      <c r="D230" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E230" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C231" s="3">
+        <v>230</v>
+      </c>
+      <c r="D231" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E231" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C232" s="3">
+        <v>231</v>
+      </c>
+      <c r="D232" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E232" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C233" s="3">
+        <v>232</v>
+      </c>
+      <c r="D233" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E233" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C234" s="3">
+        <v>233</v>
+      </c>
+      <c r="D234" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E234" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C235" s="3">
+        <v>234</v>
+      </c>
+      <c r="D235" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E235" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C236" s="3">
+        <v>235</v>
+      </c>
+      <c r="D236" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E236" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C237" s="3">
+        <v>236</v>
+      </c>
+      <c r="D237" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E237" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C238" s="3">
+        <v>237</v>
+      </c>
+      <c r="D238" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E238" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C239" s="3">
+        <v>238</v>
+      </c>
+      <c r="D239" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E239" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C240" s="3">
+        <v>239</v>
+      </c>
+      <c r="D240" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E240" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C241" s="3">
+        <v>240</v>
+      </c>
+      <c r="D241" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E241" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C242" s="3">
+        <v>241</v>
+      </c>
+      <c r="D242" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E242" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C243" s="3">
+        <v>242</v>
+      </c>
+      <c r="D243" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E243" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C244" s="3">
+        <v>243</v>
+      </c>
+      <c r="D244" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E244" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C245" s="3">
+        <v>244</v>
+      </c>
+      <c r="D245" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E245" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C246" s="3">
+        <v>245</v>
+      </c>
+      <c r="D246" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E246" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C247" s="3">
+        <v>246</v>
+      </c>
+      <c r="D247" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E247" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C248" s="3">
+        <v>247</v>
+      </c>
+      <c r="D248" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E248" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C249" s="3">
+        <v>248</v>
+      </c>
+      <c r="D249" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E249" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C250" s="3">
+        <v>249</v>
+      </c>
+      <c r="D250" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E250" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C251" s="3">
+        <v>250</v>
+      </c>
+      <c r="D251" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E251" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C252" s="3">
+        <v>251</v>
+      </c>
+      <c r="D252" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E252" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C253" s="3">
+        <v>252</v>
+      </c>
+      <c r="D253" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E253" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C254" s="3">
+        <v>253</v>
+      </c>
+      <c r="D254" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E254" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C255" s="3">
+        <v>254</v>
+      </c>
+      <c r="D255" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E255" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C256" s="3">
+        <v>255</v>
+      </c>
+      <c r="D256" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E256" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C257" s="3">
+        <v>256</v>
+      </c>
+      <c r="D257" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E257" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C258" s="3">
+        <v>257</v>
+      </c>
+      <c r="D258" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E258" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C259" s="3">
+        <v>258</v>
+      </c>
+      <c r="D259" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E259" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C260" s="3">
+        <v>259</v>
+      </c>
+      <c r="D260" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E260" s="4" t="str">
+        <f t="shared" ref="E260:E300" si="8">IF($B$3&gt;C260,IFERROR((-3.3*10^(-4)*TAN(D260*LOG10(D260*D260-5)))/(D260*D260-5)^(1/3),"Не сущ"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C261" s="3">
+        <v>260</v>
+      </c>
+      <c r="D261" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E261" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C262" s="3">
+        <v>261</v>
+      </c>
+      <c r="D262" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E262" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C263" s="3">
+        <v>262</v>
+      </c>
+      <c r="D263" t="str">
+        <f t="shared" ref="D263:D300" si="9">IF($B$3&gt;C263,D262+$B$5,"")</f>
+        <v/>
+      </c>
+      <c r="E263" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C264" s="3">
+        <v>263</v>
+      </c>
+      <c r="D264" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E264" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C265" s="3">
+        <v>264</v>
+      </c>
+      <c r="D265" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E265" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C266" s="3">
+        <v>265</v>
+      </c>
+      <c r="D266" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E266" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C267" s="3">
+        <v>266</v>
+      </c>
+      <c r="D267" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E267" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C268" s="3">
+        <v>267</v>
+      </c>
+      <c r="D268" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E268" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C269" s="3">
+        <v>268</v>
+      </c>
+      <c r="D269" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E269" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C270" s="3">
+        <v>269</v>
+      </c>
+      <c r="D270" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E270" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C271" s="3">
+        <v>270</v>
+      </c>
+      <c r="D271" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E271" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C272" s="3">
+        <v>271</v>
+      </c>
+      <c r="D272" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E272" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C273" s="3">
+        <v>272</v>
+      </c>
+      <c r="D273" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E273" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C274" s="3">
+        <v>273</v>
+      </c>
+      <c r="D274" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E274" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C275" s="3">
+        <v>274</v>
+      </c>
+      <c r="D275" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E275" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C276" s="3">
+        <v>275</v>
+      </c>
+      <c r="D276" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E276" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C277" s="3">
+        <v>276</v>
+      </c>
+      <c r="D277" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E277" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C278" s="3">
+        <v>277</v>
+      </c>
+      <c r="D278" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E278" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C279" s="3">
+        <v>278</v>
+      </c>
+      <c r="D279" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E279" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C280" s="3">
+        <v>279</v>
+      </c>
+      <c r="D280" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E280" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C281" s="3">
+        <v>280</v>
+      </c>
+      <c r="D281" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E281" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C282" s="3">
+        <v>281</v>
+      </c>
+      <c r="D282" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E282" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C283" s="3">
+        <v>282</v>
+      </c>
+      <c r="D283" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E283" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C284" s="3">
+        <v>283</v>
+      </c>
+      <c r="D284" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E284" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C285" s="3">
+        <v>284</v>
+      </c>
+      <c r="D285" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E285" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C286" s="3">
+        <v>285</v>
+      </c>
+      <c r="D286" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E286" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C287" s="3">
+        <v>286</v>
+      </c>
+      <c r="D287" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E287" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C288" s="3">
+        <v>287</v>
+      </c>
+      <c r="D288" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E288" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C289" s="3">
+        <v>288</v>
+      </c>
+      <c r="D289" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E289" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C290" s="3">
+        <v>289</v>
+      </c>
+      <c r="D290" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E290" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C291" s="3">
+        <v>290</v>
+      </c>
+      <c r="D291" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E291" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C292" s="3">
+        <v>291</v>
+      </c>
+      <c r="D292" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E292" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C293" s="3">
+        <v>292</v>
+      </c>
+      <c r="D293" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E293" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C294" s="3">
+        <v>293</v>
+      </c>
+      <c r="D294" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E294" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C295" s="3">
+        <v>294</v>
+      </c>
+      <c r="D295" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E295" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C296" s="3">
+        <v>295</v>
+      </c>
+      <c r="D296" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E296" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C297" s="3">
+        <v>296</v>
+      </c>
+      <c r="D297" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E297" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C298" s="3">
+        <v>297</v>
+      </c>
+      <c r="D298" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E298" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C299" s="3">
+        <v>298</v>
+      </c>
+      <c r="D299" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E299" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C300" s="3">
+        <v>299</v>
+      </c>
+      <c r="D300" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E300" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C301" s="3">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4052,16 +8036,16 @@
           <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1089,6 +1089,187 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23639129483814522"/>
+          <c:y val="0.15776647710702829"/>
+          <c:w val="0.61365026246719157"/>
+          <c:h val="0.75379593175853021"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$E$2:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.7436998253165347E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.6507213415741706E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.5722496625778846E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6871554153900686E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.2251448454172418E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.2932452238752384E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.1467398029953152E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3543079284948244E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.9556762802896502E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.1229928481218629E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5088594470808E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.3431895313989465E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5.2821013419247574E-7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.5464141323872645E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2142950489886049E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.8676838727389159E-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-5.1389779135582792E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9627466352627481E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="28438528"/>
+        <c:axId val="28440064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="28438528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="28440064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="28440064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="28438528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1167,6 +1348,36 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4090,7 +4301,7 @@
   <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4137,18 +4348,18 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3">
         <f>IF($B$3&gt;C3,D2+$B$5,"")</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="str">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4">
         <f>IF($B$3&gt;C3,IFERROR((-3.3*10^(-4)*TAN(D3*LOG10(D3*D3-5)))/(D3*D3-5)^(1/3),"Не сущ"),"")</f>
-        <v>Не сущ</v>
+        <v>-2.7436998253165347E-5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4157,11 +4368,11 @@
       </c>
       <c r="D4">
         <f>IF($B$3&gt;C4,D3+$B$5,"")</f>
-        <v>2</v>
-      </c>
-      <c r="E4" s="4" t="str">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4">
         <f t="shared" ref="E4:E67" si="0">IF($B$3&gt;C4,IFERROR((-3.3*10^(-4)*TAN(D4*LOG10(D4*D4-5)))/(D4*D4-5)^(1/3),"Не сущ"),"")</f>
-        <v>Не сущ</v>
+        <v>-9.6507213415741706E-5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4170,18 +4381,18 @@
       </c>
       <c r="B5">
         <f>(B2-B1)/(B3-1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
       </c>
       <c r="D5">
         <f>IF($B$3&gt;C5,D4+$B$5,"")</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="0"/>
-        <v>8.6681195192133168E-4</v>
+        <v>-3.5722496625778846E-5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4190,11 +4401,11 @@
       </c>
       <c r="D6">
         <f>IF($B$3&gt;C6,D5+$B$5,"")</f>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>-2.4375531735343673E-4</v>
+        <v>4.6871554153900686E-4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4203,11 +4414,11 @@
       </c>
       <c r="D7">
         <f t="shared" ref="D7:D70" si="1">IF($B$3&gt;C7,D6+$B$5,"")</f>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>-2.7436998253165347E-5</v>
+        <v>-3.2251448454172418E-5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4216,11 +4427,11 @@
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>5.423769642092256E-5</v>
+        <v>-2.2932452238752384E-5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4229,11 +4440,11 @@
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>1.6766404874816622E-4</v>
+        <v>-8.1467398029953152E-5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4242,11 +4453,11 @@
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
-        <v>2.8581852577548679E-3</v>
+        <v>2.3543079284948244E-5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4255,11 +4466,11 @@
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>-2.1247838810136416E-4</v>
+        <v>-4.9556762802896502E-5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4268,11 +4479,11 @@
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>-9.6507213415741706E-5</v>
+        <v>-5.1229928481218629E-6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4281,11 +4492,11 @@
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
-        <v>-5.909419954965529E-5</v>
+        <v>5.5088594470808E-6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4294,11 +4505,11 @@
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="0"/>
-        <v>-4.2051303970868043E-5</v>
+        <v>6.3431895313989465E-6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -4307,11 +4518,11 @@
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="0"/>
-        <v>-3.4409654223666406E-5</v>
+        <v>-5.2821013419247574E-7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4320,11 +4531,11 @@
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="0"/>
-        <v>-3.2697967169265569E-5</v>
+        <v>-1.5464141323872645E-5</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
@@ -4333,11 +4544,11 @@
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="0"/>
-        <v>-3.5722496625778846E-5</v>
+        <v>3.2142950489886049E-4</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
@@ -4346,11 +4557,11 @@
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="0"/>
-        <v>-4.3677930868702347E-5</v>
+        <v>4.8676838727389159E-6</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
@@ -4359,11 +4570,11 @@
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="0"/>
-        <v>-5.8992751579206769E-5</v>
+        <v>-5.1389779135582792E-5</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
@@ -4372,11 +4583,11 @@
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="0"/>
-        <v>-9.1678374702539814E-5</v>
+        <v>1.9627466352627481E-6</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
@@ -4385,1051 +4596,1051 @@
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="0"/>
-        <v>-2.1105563364268406E-4</v>
+        <v>4.7158097923228945E-5</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="3">
         <v>21</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E22" s="4">
-        <f t="shared" si="0"/>
-        <v>4.6871554153900686E-4</v>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="3">
         <v>22</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="E23" s="4">
-        <f t="shared" si="0"/>
-        <v>8.9783977219583591E-5</v>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="3">
         <v>23</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="E24" s="4">
-        <f t="shared" si="0"/>
-        <v>3.7206889421028237E-5</v>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="3">
         <v>24</v>
       </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" si="0"/>
-        <v>1.209161082855653E-5</v>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="3">
         <v>25</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="E26" s="4">
-        <f t="shared" si="0"/>
-        <v>-7.4777173078202572E-6</v>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="3">
         <v>26</v>
       </c>
-      <c r="D27">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="E27" s="4">
-        <f t="shared" si="0"/>
-        <v>-3.2251448454172418E-5</v>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" s="3">
         <v>27</v>
       </c>
-      <c r="D28">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="E28" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.0910660168353274E-4</v>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="3">
         <v>28</v>
       </c>
-      <c r="D29">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="E29" s="4">
-        <f t="shared" si="0"/>
-        <v>1.4766694854718916E-4</v>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" s="3">
         <v>29</v>
       </c>
-      <c r="D30">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="E30" s="4">
-        <f t="shared" si="0"/>
-        <v>3.1351940241606407E-5</v>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="3">
         <v>30</v>
       </c>
-      <c r="D31">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="E31" s="4">
-        <f t="shared" si="0"/>
-        <v>2.7738646067653548E-6</v>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" s="3">
         <v>31</v>
       </c>
-      <c r="D32">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="E32" s="4">
-        <f t="shared" si="0"/>
-        <v>-2.2932452238752384E-5</v>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="3">
         <v>32</v>
       </c>
-      <c r="D33">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="E33" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.1528380260237973E-4</v>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="3">
         <v>33</v>
       </c>
-      <c r="D34">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="E34" s="4">
-        <f t="shared" si="0"/>
-        <v>6.9119483449704437E-5</v>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="3">
         <v>34</v>
       </c>
-      <c r="D35">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="E35" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2645038142589085E-5</v>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" s="3">
         <v>35</v>
       </c>
-      <c r="D36">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="E36" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.3462082589708704E-5</v>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="3">
         <v>36</v>
       </c>
-      <c r="D37">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="E37" s="4">
-        <f t="shared" si="0"/>
-        <v>-8.1467398029953152E-5</v>
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C38" s="3">
         <v>37</v>
       </c>
-      <c r="D38">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="E38" s="4">
-        <f t="shared" si="0"/>
-        <v>6.0137855387106419E-5</v>
+      <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" s="3">
         <v>38</v>
       </c>
-      <c r="D39">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="E39" s="4">
-        <f t="shared" si="0"/>
-        <v>7.6232268991673199E-6</v>
+      <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C40" s="3">
         <v>39</v>
       </c>
-      <c r="D40">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="E40" s="4">
-        <f t="shared" si="0"/>
-        <v>-2.1124004537412624E-5</v>
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" s="3">
         <v>40</v>
       </c>
-      <c r="D41">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="E41" s="4">
-        <f t="shared" si="0"/>
-        <v>-6.2896189745704275E-4</v>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C42" s="3">
         <v>41</v>
       </c>
-      <c r="D42">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="E42" s="4">
-        <f t="shared" si="0"/>
-        <v>2.3543079284948244E-5</v>
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" s="3">
         <v>42</v>
       </c>
-      <c r="D43">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="E43" s="4">
-        <f t="shared" si="0"/>
-        <v>-7.0447749056108588E-6</v>
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E43" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C44" s="3">
         <v>43</v>
       </c>
-      <c r="D44">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="E44" s="4">
-        <f t="shared" si="0"/>
-        <v>-7.3045579777727444E-5</v>
+      <c r="D44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E44" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C45" s="3">
         <v>44</v>
       </c>
-      <c r="D45">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="E45" s="4">
-        <f t="shared" si="0"/>
-        <v>3.7154473599352488E-5</v>
+      <c r="D45" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E45" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C46" s="3">
         <v>45</v>
       </c>
-      <c r="D46">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="E46" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.6227374517686652E-6</v>
+      <c r="D46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E46" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C47" s="3">
         <v>46</v>
       </c>
-      <c r="D47">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="E47" s="4">
-        <f t="shared" si="0"/>
-        <v>-4.9556762802896502E-5</v>
+      <c r="D47" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E47" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C48" s="3">
         <v>47</v>
       </c>
-      <c r="D48">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="E48" s="4">
-        <f t="shared" si="0"/>
-        <v>4.1103271076438981E-5</v>
+      <c r="D48" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" s="3">
         <v>48</v>
       </c>
-      <c r="D49">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="E49" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.3022996015948523E-6</v>
+      <c r="D49" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C50" s="3">
         <v>49</v>
       </c>
-      <c r="D50">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="E50" s="4">
-        <f t="shared" si="0"/>
-        <v>-5.3366577651120659E-5</v>
+      <c r="D50" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E50" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51" s="3">
         <v>50</v>
       </c>
-      <c r="D51">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="E51" s="4">
-        <f t="shared" si="0"/>
-        <v>3.1694712462218194E-5</v>
+      <c r="D51" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E51" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C52" s="3">
         <v>51</v>
       </c>
-      <c r="D52">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="E52" s="4">
-        <f t="shared" si="0"/>
-        <v>-5.1229928481218629E-6</v>
+      <c r="D52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E52" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C53" s="3">
         <v>52</v>
       </c>
-      <c r="D53">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="E53" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.0308120905496325E-4</v>
+      <c r="D53" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E53" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C54" s="3">
         <v>53</v>
       </c>
-      <c r="D54">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="E54" s="4">
-        <f t="shared" si="0"/>
-        <v>1.7952082001124109E-5</v>
+      <c r="D54" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E54" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55" s="3">
         <v>54</v>
       </c>
-      <c r="D55">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="E55" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.3394810349099054E-5</v>
+      <c r="D55" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E55" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C56" s="3">
         <v>55</v>
       </c>
-      <c r="D56">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="E56" s="4">
-        <f t="shared" si="0"/>
-        <v>1.7207103656618878E-4</v>
+      <c r="D56" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E56" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C57" s="3">
         <v>56</v>
       </c>
-      <c r="D57">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="E57" s="4">
-        <f t="shared" si="0"/>
-        <v>5.5088594470808E-6</v>
+      <c r="D57" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E57" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C58" s="3">
         <v>57</v>
       </c>
-      <c r="D58">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="E58" s="4">
-        <f t="shared" si="0"/>
-        <v>-3.3596129792396464E-5</v>
+      <c r="D58" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E58" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C59" s="3">
         <v>58</v>
       </c>
-      <c r="D59">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="E59" s="4">
-        <f t="shared" si="0"/>
-        <v>2.9911147365128274E-5</v>
+      <c r="D59" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E59" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C60" s="3">
         <v>59</v>
       </c>
-      <c r="D60">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="E60" s="4">
-        <f t="shared" si="0"/>
-        <v>-7.220480428200067E-6</v>
+      <c r="D60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E60" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C61" s="3">
         <v>60</v>
       </c>
-      <c r="D61">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="E61" s="4">
-        <f t="shared" si="0"/>
-        <v>2.7947199120130668E-3</v>
+      <c r="D61" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E61" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C62" s="3">
         <v>61</v>
       </c>
-      <c r="D62">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="E62" s="4">
-        <f t="shared" si="0"/>
-        <v>6.3431895313989465E-6</v>
+      <c r="D62" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E62" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C63" s="3">
         <v>62</v>
       </c>
-      <c r="D63">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="E63" s="4">
-        <f t="shared" si="0"/>
-        <v>-3.352851207324227E-5</v>
+      <c r="D63" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E63" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C64" s="3">
         <v>63</v>
       </c>
-      <c r="D64">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="E64" s="4">
-        <f t="shared" si="0"/>
-        <v>2.3116567473216269E-5</v>
+      <c r="D64" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E64" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C65" s="3">
         <v>64</v>
       </c>
-      <c r="D65">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="E65" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.1061683134462389E-5</v>
+      <c r="D65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E65" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C66" s="3">
         <v>65</v>
       </c>
-      <c r="D66">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="E66" s="4">
-        <f t="shared" si="0"/>
-        <v>8.0797957031973139E-5</v>
+      <c r="D66" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E66" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C67" s="3">
         <v>66</v>
       </c>
-      <c r="D67">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="E67" s="4">
-        <f t="shared" si="0"/>
-        <v>-5.2821013419247574E-7</v>
+      <c r="D67" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E67" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C68" s="3">
         <v>67</v>
       </c>
-      <c r="D68">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="E68" s="4">
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E68" s="4" t="str">
         <f t="shared" ref="E68:E131" si="2">IF($B$3&gt;C68,IFERROR((-3.3*10^(-4)*TAN(D68*LOG10(D68*D68-5)))/(D68*D68-5)^(1/3),"Не сущ"),"")</f>
-        <v>-1.0803994218423252E-4</v>
+        <v/>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C69" s="3">
         <v>68</v>
       </c>
-      <c r="D69">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="E69" s="4">
-        <f t="shared" si="2"/>
-        <v>8.0542041359846557E-6</v>
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E69" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C70" s="3">
         <v>69</v>
       </c>
-      <c r="D70">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="E70" s="4">
-        <f t="shared" si="2"/>
-        <v>-3.109518932239086E-5</v>
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E70" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C71" s="3">
         <v>70</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="str">
         <f t="shared" ref="D71:D134" si="3">IF($B$3&gt;C71,D70+$B$5,"")</f>
-        <v>69</v>
-      </c>
-      <c r="E71" s="4">
-        <f t="shared" si="2"/>
-        <v>1.7893066776967473E-5</v>
+        <v/>
+      </c>
+      <c r="E71" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C72" s="3">
         <v>71</v>
       </c>
-      <c r="D72">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="E72" s="4">
-        <f t="shared" si="2"/>
-        <v>-1.5464141323872645E-5</v>
+      <c r="D72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E72" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C73" s="3">
         <v>72</v>
       </c>
-      <c r="D73">
-        <f t="shared" si="3"/>
-        <v>71</v>
-      </c>
-      <c r="E73" s="4">
-        <f t="shared" si="2"/>
-        <v>3.3230890522245353E-5</v>
+      <c r="D73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E73" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C74" s="3">
         <v>73</v>
       </c>
-      <c r="D74">
-        <f t="shared" si="3"/>
-        <v>72</v>
-      </c>
-      <c r="E74" s="4">
-        <f t="shared" si="2"/>
-        <v>-7.8476440199725469E-6</v>
+      <c r="D74" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E74" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C75" s="3">
         <v>74</v>
       </c>
-      <c r="D75">
-        <f t="shared" si="3"/>
-        <v>73</v>
-      </c>
-      <c r="E75" s="4">
-        <f t="shared" si="2"/>
-        <v>6.8926018076198467E-5</v>
+      <c r="D75" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E75" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C76" s="3">
         <v>75</v>
       </c>
-      <c r="D76">
-        <f t="shared" si="3"/>
-        <v>74</v>
-      </c>
-      <c r="E76" s="4">
-        <f t="shared" si="2"/>
-        <v>-2.9605386702280418E-6</v>
+      <c r="D76" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E76" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C77" s="3">
         <v>76</v>
       </c>
-      <c r="D77">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-      <c r="E77" s="4">
-        <f t="shared" si="2"/>
-        <v>3.2142950489886049E-4</v>
+      <c r="D77" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E77" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C78" s="3">
         <v>77</v>
       </c>
-      <c r="D78">
-        <f t="shared" si="3"/>
-        <v>76</v>
-      </c>
-      <c r="E78" s="4">
-        <f t="shared" si="2"/>
-        <v>5.4933142820892084E-7</v>
+      <c r="D78" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E78" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C79" s="3">
         <v>78</v>
       </c>
-      <c r="D79">
-        <f t="shared" si="3"/>
-        <v>77</v>
-      </c>
-      <c r="E79" s="4">
-        <f t="shared" si="2"/>
-        <v>-1.714736270767016E-4</v>
+      <c r="D79" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E79" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C80" s="3">
         <v>79</v>
       </c>
-      <c r="D80">
-        <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="E80" s="4">
-        <f t="shared" si="2"/>
-        <v>3.118763371360127E-6</v>
+      <c r="D80" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E80" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C81" s="3">
         <v>80</v>
       </c>
-      <c r="D81">
-        <f t="shared" si="3"/>
-        <v>79</v>
-      </c>
-      <c r="E81" s="4">
-        <f t="shared" si="2"/>
-        <v>-7.8507952016734854E-5</v>
+      <c r="D81" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E81" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C82" s="3">
         <v>81</v>
       </c>
-      <c r="D82">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="E82" s="4">
-        <f t="shared" si="2"/>
-        <v>4.8676838727389159E-6</v>
+      <c r="D82" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E82" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C83" s="3">
         <v>82</v>
       </c>
-      <c r="D83">
-        <f t="shared" si="3"/>
-        <v>81</v>
-      </c>
-      <c r="E83" s="4">
-        <f t="shared" si="2"/>
-        <v>-5.7177182361398224E-5</v>
+      <c r="D83" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E83" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C84" s="3">
         <v>83</v>
       </c>
-      <c r="D84">
-        <f t="shared" si="3"/>
-        <v>82</v>
-      </c>
-      <c r="E84" s="4">
-        <f t="shared" si="2"/>
-        <v>5.8009403371525268E-6</v>
+      <c r="D84" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E84" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C85" s="3">
         <v>84</v>
       </c>
-      <c r="D85">
-        <f t="shared" si="3"/>
-        <v>83</v>
-      </c>
-      <c r="E85" s="4">
-        <f t="shared" si="2"/>
-        <v>-5.0503393551575389E-5</v>
+      <c r="D85" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E85" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C86" s="3">
         <v>85</v>
       </c>
-      <c r="D86">
-        <f t="shared" si="3"/>
-        <v>84</v>
-      </c>
-      <c r="E86" s="4">
-        <f t="shared" si="2"/>
-        <v>5.9135333210219884E-6</v>
+      <c r="D86" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E86" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C87" s="3">
         <v>86</v>
       </c>
-      <c r="D87">
-        <f t="shared" si="3"/>
-        <v>85</v>
-      </c>
-      <c r="E87" s="4">
-        <f t="shared" si="2"/>
-        <v>-5.1389779135582792E-5</v>
+      <c r="D87" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E87" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C88" s="3">
         <v>87</v>
       </c>
-      <c r="D88">
-        <f t="shared" si="3"/>
-        <v>86</v>
-      </c>
-      <c r="E88" s="4">
-        <f t="shared" si="2"/>
-        <v>5.2469729677498442E-6</v>
+      <c r="D88" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E88" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C89" s="3">
         <v>88</v>
       </c>
-      <c r="D89">
-        <f t="shared" si="3"/>
-        <v>87</v>
-      </c>
-      <c r="E89" s="4">
-        <f t="shared" si="2"/>
-        <v>-6.0783684590641551E-5</v>
+      <c r="D89" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E89" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C90" s="3">
         <v>89</v>
       </c>
-      <c r="D90">
-        <f t="shared" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="E90" s="4">
-        <f t="shared" si="2"/>
-        <v>3.8945764753027104E-6</v>
+      <c r="D90" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E90" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C91" s="3">
         <v>90</v>
       </c>
-      <c r="D91">
-        <f t="shared" si="3"/>
-        <v>89</v>
-      </c>
-      <c r="E91" s="4">
-        <f t="shared" si="2"/>
-        <v>-9.1527530381770397E-5</v>
+      <c r="D91" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E91" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C92" s="3">
         <v>91</v>
       </c>
-      <c r="D92">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="E92" s="4">
-        <f t="shared" si="2"/>
-        <v>1.9627466352627481E-6</v>
+      <c r="D92" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E92" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C93" s="3">
         <v>92</v>
       </c>
-      <c r="D93">
-        <f t="shared" si="3"/>
-        <v>91</v>
-      </c>
-      <c r="E93" s="4">
-        <f t="shared" si="2"/>
-        <v>-3.3198810851218472E-4</v>
+      <c r="D93" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E93" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C94" s="3">
         <v>93</v>
       </c>
-      <c r="D94">
-        <f t="shared" si="3"/>
-        <v>92</v>
-      </c>
-      <c r="E94" s="4">
-        <f t="shared" si="2"/>
-        <v>-4.8918887131717009E-7</v>
+      <c r="D94" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E94" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C95" s="3">
         <v>94</v>
       </c>
-      <c r="D95">
-        <f t="shared" si="3"/>
-        <v>93</v>
-      </c>
-      <c r="E95" s="4">
-        <f t="shared" si="2"/>
-        <v>1.3456616852463492E-4</v>
+      <c r="D95" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E95" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C96" s="3">
         <v>95</v>
       </c>
-      <c r="D96">
-        <f t="shared" si="3"/>
-        <v>94</v>
-      </c>
-      <c r="E96" s="4">
-        <f t="shared" si="2"/>
-        <v>-3.5198293750562816E-6</v>
+      <c r="D96" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E96" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C97" s="3">
         <v>96</v>
       </c>
-      <c r="D97">
-        <f t="shared" si="3"/>
-        <v>95</v>
-      </c>
-      <c r="E97" s="4">
-        <f t="shared" si="2"/>
-        <v>4.7158097923228945E-5</v>
+      <c r="D97" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E97" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C98" s="3">
         <v>97</v>
       </c>
-      <c r="D98">
-        <f t="shared" si="3"/>
-        <v>96</v>
-      </c>
-      <c r="E98" s="4">
-        <f t="shared" si="2"/>
-        <v>-7.4255785036350682E-6</v>
+      <c r="D98" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E98" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C99" s="3">
         <v>98</v>
       </c>
-      <c r="D99">
-        <f t="shared" si="3"/>
-        <v>97</v>
-      </c>
-      <c r="E99" s="4">
-        <f t="shared" si="2"/>
-        <v>2.4595489130590192E-5</v>
+      <c r="D99" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E99" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="100" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C100" s="3">
         <v>99</v>
       </c>
-      <c r="D100">
-        <f t="shared" si="3"/>
-        <v>98</v>
-      </c>
-      <c r="E100" s="4">
-        <f t="shared" si="2"/>
-        <v>-1.3096224540394582E-5</v>
+      <c r="D100" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E100" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C101" s="3">
         <v>100</v>
       </c>
-      <c r="D101">
-        <f t="shared" si="3"/>
-        <v>99</v>
-      </c>
-      <c r="E101" s="4">
-        <f t="shared" si="2"/>
-        <v>1.3714800480021377E-5</v>
+      <c r="D101" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E101" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.25">
